--- a/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1203 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r573155613-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>106631</t>
+  </si>
+  <si>
+    <t>573155613</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Relax!</t>
+  </si>
+  <si>
+    <t>Welcoming and knowledgeable staff. Caring breakfast attendent, made sure no one has to ask her to refill anything. Great pool and best clean rooms. No issues with anything I think of . Best internet as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Welcoming and knowledgeable staff. Caring breakfast attendent, made sure no one has to ask her to refill anything. Great pool and best clean rooms. No issues with anything I think of . Best internet as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r562225231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>562225231</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Comfortable beds and great staff</t>
+  </si>
+  <si>
+    <t>We visited two weekends in Feb 2018 back to back due to a sick relative then the death of said relative. First weekend we booked two queen beds second weekend one king bed. These rooms are kept very clean. The beds are very comfortable. The staff makes sure to treat you amazing. I’ve been staying at this hotel for years. I don’t need to go anywhere else in Mesquite TX this hotel has everything I need. I give them a score of 100. They deserve it. Give them a try, you’ll be glad you did. Thanks staff. See you guys again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>We visited two weekends in Feb 2018 back to back due to a sick relative then the death of said relative. First weekend we booked two queen beds second weekend one king bed. These rooms are kept very clean. The beds are very comfortable. The staff makes sure to treat you amazing. I’ve been staying at this hotel for years. I don’t need to go anywhere else in Mesquite TX this hotel has everything I need. I give them a score of 100. They deserve it. Give them a try, you’ll be glad you did. Thanks staff. See you guys again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r557434212-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>557434212</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Friendly Hotel Employee's</t>
+  </si>
+  <si>
+    <t>Awesome hotel as usual from check in to check out. Very comfortable beds. The breakfast that I had was great, love the biscuits and gravy and then the hot chocolate was very good. Ordered from the menu in the room which was very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel as usual from check in to check out. Very comfortable beds. The breakfast that I had was great, love the biscuits and gravy and then the hot chocolate was very good. Ordered from the menu in the room which was very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489207808-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>489207808</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>Clean rooms, easy access from I-635, recent remodeling made the motel much nicer.  No problem checking in or checking out.  Swimming pool and breakfast area were in close proximity to our room.  Parking was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, easy access from I-635, recent remodeling made the motel much nicer.  No problem checking in or checking out.  Swimming pool and breakfast area were in close proximity to our room.  Parking was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489019087-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>489019087</t>
+  </si>
+  <si>
+    <t>Very nice hotel in mesquite!</t>
+  </si>
+  <si>
+    <t>Hotel was a spur of the moment. We got the last room for a really good price. Has a great entry, nice comfy room, nice empty pool, quiet stay. There were No kids running around like the other hotels in mesquite! Will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was a spur of the moment. We got the last room for a really good price. Has a great entry, nice comfy room, nice empty pool, quiet stay. There were No kids running around like the other hotels in mesquite! Will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r486097261-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>486097261</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Great managment , place is always looking great.. I am there every week . I always get the great recognition .</t>
+  </si>
+  <si>
+    <t>Great service, manager acknowledges me by my name. He remembers my name .rooms are always clean and organized. Employees of the hotel are very friendly. Breakfast selection is always clean and food is fresh and hotMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Great service, manager acknowledges me by my name. He remembers my name .rooms are always clean and organized. Employees of the hotel are very friendly. Breakfast selection is always clean and food is fresh and hotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r463282753-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>463282753</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>A very pleasant stay</t>
+  </si>
+  <si>
+    <t>My young son and I stayed at Quality Inn for one night in February 2017.  We were in town for a competition and were basically just spending the night and eating breakfast the next morning.  The parking lot is well-lighted, and there was ample parking available.  Check in was very fast, and the man working at the front desk was very polite.The room was clean and had working AC/heat.  There were a nice variety of TV channels, including channels for kids (which my son approved of).  The beds were comfortable and clean.  The bathroom was also clean.  We did not use the shower, but the sink and toilet worked just fine.  There really weren't any noise problems in the hotel, either.  My son and I both had a good night's sleep.The complimentary breakfast (which starts at 6:30am) was the standard fare, with a mix of hot and cold items.  It was kept well-stocked, and there were quite a few tables for seating.  We glanced at the pool as we walked around, and it looked like your typical indoor pool.  There were a lot of kids having fun in there.This was a great hotel, and I highly recommend it to anyone who needs a good place to stay for a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>My young son and I stayed at Quality Inn for one night in February 2017.  We were in town for a competition and were basically just spending the night and eating breakfast the next morning.  The parking lot is well-lighted, and there was ample parking available.  Check in was very fast, and the man working at the front desk was very polite.The room was clean and had working AC/heat.  There were a nice variety of TV channels, including channels for kids (which my son approved of).  The beds were comfortable and clean.  The bathroom was also clean.  We did not use the shower, but the sink and toilet worked just fine.  There really weren't any noise problems in the hotel, either.  My son and I both had a good night's sleep.The complimentary breakfast (which starts at 6:30am) was the standard fare, with a mix of hot and cold items.  It was kept well-stocked, and there were quite a few tables for seating.  We glanced at the pool as we walked around, and it looked like your typical indoor pool.  There were a lot of kids having fun in there.This was a great hotel, and I highly recommend it to anyone who needs a good place to stay for a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r448911647-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>448911647</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Not very good shows to watch on tv. Communication between management and staff needs to be more understanding. There was a misunderstanding that the pool was actually opened not closed. The hot tub was out of order and staff confused it with the pool. At check in, the young lady told me the pool was closed. I had her call her manager because before I booked the room, I called to make sure the pool was opened and I was told yes. So the lady called her manager and was told the pool was open.  The first night with me there the kids swam. The next day I left my cousin with the kids in the room and my kids missed half of one day not swimming because the front desk staff told them the pool wasn't open. I finally spoke with my cousin that day and she told me what happened. I was so angry. I called and demanded answers. The lady at the desk was hesitate to help until I got annoyed and made her call her manager. The pool was opened and kids got to swim.Better communication neededMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Not very good shows to watch on tv. Communication between management and staff needs to be more understanding. There was a misunderstanding that the pool was actually opened not closed. The hot tub was out of order and staff confused it with the pool. At check in, the young lady told me the pool was closed. I had her call her manager because before I booked the room, I called to make sure the pool was opened and I was told yes. So the lady called her manager and was told the pool was open.  The first night with me there the kids swam. The next day I left my cousin with the kids in the room and my kids missed half of one day not swimming because the front desk staff told them the pool wasn't open. I finally spoke with my cousin that day and she told me what happened. I was so angry. I called and demanded answers. The lady at the desk was hesitate to help until I got annoyed and made her call her manager. The pool was opened and kids got to swim.Better communication neededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r444093577-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>444093577</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms, comfortable beds. The internet went in and out sometimes, but overall it's a great place to stay. I will deffinatley be staying here again the next time I come through town!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms, comfortable beds. The internet went in and out sometimes, but overall it's a great place to stay. I will deffinatley be staying here again the next time I come through town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r432269884-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>432269884</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Stay away bed bugs</t>
+  </si>
+  <si>
+    <t>We stayed here for three days and they had bugs . Also lots of traffic in and out and also have people just wondering around . The hotel needs to be updated and bugs need to go.  The breakfasr was okay MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for three days and they had bugs . Also lots of traffic in and out and also have people just wondering around . The hotel needs to be updated and bugs need to go.  The breakfasr was okay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r427222897-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>427222897</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Excellent bbq restaurant next door. Convenience store within walking distance. If you want more options there are plenty across the freeway. The price was very reasonable. The location was right off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Excellent bbq restaurant next door. Convenience store within walking distance. If you want more options there are plenty across the freeway. The price was very reasonable. The location was right off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r426795484-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>426795484</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Room 223</t>
+  </si>
+  <si>
+    <t>everything was excellent with one exception: the room had a foul odor; it was not strong but I could smell it. It smelled like someone with bad foot odor walked on the carpet. The service, pool, price, everything else was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>everything was excellent with one exception: the room had a foul odor; it was not strong but I could smell it. It smelled like someone with bad foot odor walked on the carpet. The service, pool, price, everything else was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r404327930-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>404327930</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>the whole quality inn experience here was outstanding and the staff were very professional,especially,Selena... I will always stay here when I am doing business in Dallas...Thank You very much Quality InnMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>the whole quality inn experience here was outstanding and the staff were very professional,especially,Selena... I will always stay here when I am doing business in Dallas...Thank You very much Quality InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r401483231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>401483231</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>It was a very peaceful stay on all the employees were very courteous and attentive.  Place was very peaceful and quiet and very clean .  We thoroughly enjoyed our stay there .we will definitely consider staying there again when we come to MesquiteMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>It was a very peaceful stay on all the employees were very courteous and attentive.  Place was very peaceful and quiet and very clean .  We thoroughly enjoyed our stay there .we will definitely consider staying there again when we come to MesquiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r399264154-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>399264154</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever!!!</t>
+  </si>
+  <si>
+    <t>The locks where busted on the room door and bathroom door. There was a foul smell in the room, and holes I n the wall. They over charged me and had extremely poor customer service. I had to switch rooms 3 times and they where very careless about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>The locks where busted on the room door and bathroom door. There was a foul smell in the room, and holes I n the wall. They over charged me and had extremely poor customer service. I had to switch rooms 3 times and they where very careless about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r391834796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>391834796</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>This is a very average hotel. However, that being said, breakfast was utilitarian but good, room was clean, air-conditioning was cold, front desk staff was very polite, and our room was ready when we got there.  I have no complaint. The hotel gets three stars because of the few construction and maintenance issues. The room was really kind of funny, because they had cut the mirror out to go around towel racks because original construction or finish construction didn't know what they were doing, and the painting crew took the term holiday to apply to their painting ability LOL.  I would stay at this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>This is a very average hotel. However, that being said, breakfast was utilitarian but good, room was clean, air-conditioning was cold, front desk staff was very polite, and our room was ready when we got there.  I have no complaint. The hotel gets three stars because of the few construction and maintenance issues. The room was really kind of funny, because they had cut the mirror out to go around towel racks because original construction or finish construction didn't know what they were doing, and the painting crew took the term holiday to apply to their painting ability LOL.  I would stay at this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r389007874-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>389007874</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Pretty Decent</t>
+  </si>
+  <si>
+    <t>Nice outer appearance. Staff was friendly. On the inside, some painting and repairs could be done. Room bathroom also needs repairing. Room was stuffy; had an odor that went away after the ran the air a few minutes. Hot tub was out of order. Breakfast was delicious. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Nice outer appearance. Staff was friendly. On the inside, some painting and repairs could be done. Room bathroom also needs repairing. Room was stuffy; had an odor that went away after the ran the air a few minutes. Hot tub was out of order. Breakfast was delicious. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r386800491-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>386800491</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Happy with my stay at Quality Inn!</t>
+  </si>
+  <si>
+    <t>My stay is always AWESOME!!! I would highly recommend anybody to stay there.The staff is always friendly and very courteous. You are always welcomed there with a smile on their faces. The hotel is very clean and if something is wrong it will be taken care of promptly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>My stay is always AWESOME!!! I would highly recommend anybody to stay there.The staff is always friendly and very courteous. You are always welcomed there with a smile on their faces. The hotel is very clean and if something is wrong it will be taken care of promptly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r385113710-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>385113710</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>I will come back again  as long as A K Patel is still there and the rest of the staff breakfast  was great  just nice and clean up to date place  I rate it 9 for trip advisor comments  and suggestions it always  freshMoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>I will come back again  as long as A K Patel is still there and the rest of the staff breakfast  was great  just nice and clean up to date place  I rate it 9 for trip advisor comments  and suggestions it always  freshMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r384045523-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>384045523</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>The staff were extremely friendly and nice. That certainly balanced out for the old condition of the hotel. I sunk into the bed and my back was sore due to the softness of the bed. The shower knob was tight and I had difficulty pulling the knob for the shower head to dispense. The age of the room and furniture was not the most visually pleasing nor comfortable. I think the age of the room contributed to the musty odor. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff were extremely friendly and nice. That certainly balanced out for the old condition of the hotel. I sunk into the bed and my back was sore due to the softness of the bed. The shower knob was tight and I had difficulty pulling the knob for the shower head to dispense. The age of the room and furniture was not the most visually pleasing nor comfortable. I think the age of the room contributed to the musty odor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r383017279-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>383017279</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>I will not EVER go to this motel again.The shower did not work, the room was stupid hot on arrival and 2 hours later the a/c still hadn't caught up, the bed was soft and lumpy, and the whole place had a dirty feel.To top it off, when I complained the staff said - so are you checking out?  I said yes and left.  NEVER AGAIN!MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>I will not EVER go to this motel again.The shower did not work, the room was stupid hot on arrival and 2 hours later the a/c still hadn't caught up, the bed was soft and lumpy, and the whole place had a dirty feel.To top it off, when I complained the staff said - so are you checking out?  I said yes and left.  NEVER AGAIN!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367374661-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>367374661</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>For a Quality Inn this was a great stay. Rooms clean and staff was very nice. Close to the interstate. If we had to say anything about it that we did not like it would be that it is not in the best part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>For a Quality Inn this was a great stay. Rooms clean and staff was very nice. Close to the interstate. If we had to say anything about it that we did not like it would be that it is not in the best part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367009764-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>367009764</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windbell Dr </t>
+  </si>
+  <si>
+    <t>Was VERY impressed with room and service. Very clean and VERY nice at desk. Stayed two nights and room was clean upon returning. Will stay again at our next trip up. Rates were great also. Great lighting out side at night also. Room had microwave, Frig, iron, ironing board, coffee, tv, and Wi-FiMoreShow less</t>
+  </si>
+  <si>
+    <t>Was VERY impressed with room and service. Very clean and VERY nice at desk. Stayed two nights and room was clean upon returning. Will stay again at our next trip up. Rates were great also. Great lighting out side at night also. Room had microwave, Frig, iron, ironing board, coffee, tv, and Wi-FiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r358826417-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>358826417</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and will stop there again when traveling through that part of Texas.  The clerk at he front desk was very friendly and helpful. Our room was clean and comfortable. The breakfast was tasty and hit the spot for this traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and will stop there again when traveling through that part of Texas.  The clerk at he front desk was very friendly and helpful. Our room was clean and comfortable. The breakfast was tasty and hit the spot for this traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r353857182-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>353857182</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay. Will definitely recommend to other.</t>
+  </si>
+  <si>
+    <t>Friendly and professional staff. Cleanliness is great. Loved staying here. Breakfast was always hot and fresh. Indoor pool and hot tub are great extras. Really feels like you are in the comfort of your own home. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Friendly and professional staff. Cleanliness is great. Loved staying here. Breakfast was always hot and fresh. Indoor pool and hot tub are great extras. Really feels like you are in the comfort of your own home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r350809789-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>350809789</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Fear for your safety.</t>
+  </si>
+  <si>
+    <t>The management will open the door for anyone that states they are sharing a room with you.  Without ID or confirmation.  If safety is a concern, I highly recommend you find a different hotel.  Management is rude and accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>The management will open the door for anyone that states they are sharing a room with you.  Without ID or confirmation.  If safety is a concern, I highly recommend you find a different hotel.  Management is rude and accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r346432939-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>346432939</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Lee Aldeen</t>
+  </si>
+  <si>
+    <t>I love this place I strongly recommend this place because it's better than anything else around plus it's in a great neighbor hood and the service so great and the food so good and the front desk staff so nice and helpful MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>I love this place I strongly recommend this place because it's better than anything else around plus it's in a great neighbor hood and the service so great and the food so good and the front desk staff so nice and helpful More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r342006336-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>342006336</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>We arrived late and our room was ready and clean. We didn't have any issues and I will definitely stay there again when I am in the Mesquite area or anywhere close? I did not request a room on lower level but was thankful it was on bottom level.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>We arrived late and our room was ready and clean. We didn't have any issues and I will definitely stay there again when I am in the Mesquite area or anywhere close? I did not request a room on lower level but was thankful it was on bottom level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r341696920-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>341696920</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Jan 2016</t>
+  </si>
+  <si>
+    <t>There was bugs in the restroom and something on the blankets I ended up with a rash. Please fix that. Didn't want to make a report on it while I was still there and cause a scene this is the first time it has happened regarding I've stayed there several times before.MoreShow less</t>
+  </si>
+  <si>
+    <t>There was bugs in the restroom and something on the blankets I ended up with a rash. Please fix that. Didn't want to make a report on it while I was still there and cause a scene this is the first time it has happened regarding I've stayed there several times before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r337748163-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>337748163</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Happy Campers</t>
+  </si>
+  <si>
+    <t>We went to Texas over Christmas. I just want to say thank you to the house keepers. They had my room nice and clean everyday, and helped me with all my needs.  Nothing was taken or missing from our room.  I enjoyed the pool everyday.  The young lady who took care of the breakfast room kept the food fresh and stocked.  It was better than I expected and she kept the area nice and clean.  It was inviting. She also informed me of washing machines upstairs and I was able to wash my clothes right there in the building. I also felt safe. I would take my family there again. It would have been better had I gotten a little better price for my stay.  How can I get a coupon or discount for next time?MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>We went to Texas over Christmas. I just want to say thank you to the house keepers. They had my room nice and clean everyday, and helped me with all my needs.  Nothing was taken or missing from our room.  I enjoyed the pool everyday.  The young lady who took care of the breakfast room kept the food fresh and stocked.  It was better than I expected and she kept the area nice and clean.  It was inviting. She also informed me of washing machines upstairs and I was able to wash my clothes right there in the building. I also felt safe. I would take my family there again. It would have been better had I gotten a little better price for my stay.  How can I get a coupon or discount for next time?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r330286440-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>330286440</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Me n my dude enjoy our selfbreally nice hotel guest house keeper are great couldn't been no better will stay here every time I come to dallas good for the price good breakfast nice area n great parking love the pool MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Me n my dude enjoy our selfbreally nice hotel guest house keeper are great couldn't been no better will stay here every time I come to dallas good for the price good breakfast nice area n great parking love the pool More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r328801736-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>328801736</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. Staff was very professional and went out their way to make our stay great. Indoor heated poor and Fitness room were great accommodations. We will definitely be staying again. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. Staff was very professional and went out their way to make our stay great. Indoor heated poor and Fitness room were great accommodations. We will definitely be staying again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r327511944-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>327511944</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Go some where else</t>
+  </si>
+  <si>
+    <t>The whole place smelt like wet dog. My room even worse with the lack of air flow. The furniture looked like it came from my great grandmas house. Way over priced for what you get, I've stayed in $50 rooms that were a lot nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>The whole place smelt like wet dog. My room even worse with the lack of air flow. The furniture looked like it came from my great grandmas house. Way over priced for what you get, I've stayed in $50 rooms that were a lot nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r324373142-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>324373142</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>solo stay</t>
+  </si>
+  <si>
+    <t>it was a good stay. the only thing that needs to be fixed is that the web price said $65.00 but when I got there it was $75.00. the staff member at the desk said that the home office has not updated the web to the current price, which I should have gotten the $65.00 because that was what was advertised. other than that it was a nice stay..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>it was a good stay. the only thing that needs to be fixed is that the web price said $65.00 but when I got there it was $75.00. the staff member at the desk said that the home office has not updated the web to the current price, which I should have gotten the $65.00 because that was what was advertised. other than that it was a nice stay..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r322520345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>322520345</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>My Complete Breakdown of Quality Inn - Mesquite, TX</t>
+  </si>
+  <si>
+    <t>To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.
+Customer Service: 5/5
+I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.
+Appearance: 2.5/5
+Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.
+The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping...To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.Customer Service: 5/5I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.Appearance: 2.5/5Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping staff; I assume they would report vandalism to management. Aside from the damage, the room was clean, though it didn’t smell so clean.Functions, Access &amp; Noise: 4.5/5So the bad news is that your room may be in disrepair. The good news is that stuff works. I had an outstanding wifi signal on my phone, laptop, and my streaming video device. I have found that signal strength tends to be weakest at the extreme ends of hallways, but not in this case. The signal was probably as strong as my own dedicated wifi at home. The TV had a decent picture. The A/C unit regulated the temperature nicely after adjustment.There was convenient parking right in front of the entrance. There is one elevator in this hotel.The hotel lives just off I-635. Traffic noise was not noticeable to me at night, but could be heard in the morning. If you’re a light sleeper, it might be an issue. Sleep Quality: 3.5/5The linens were not especially soft and had started to pill, but they were clean. The pillows were generously mushable and the mattress was a true medium-firm. My lower back was not complaining in the morning.Bath: 4/5A very clean and bright bathroom. A nice long mirror and plenty of counter space. The shower was above average for a budget hotel.Extras: 3.5/5I didn’t try the indoor pool or jacuzzi, but they appeared to be maintained well. The fitness room came with an adequate elliptical trainer and treadmill along with a multi-purpose machine. Towels, sanitizer, and water provided. The breakfast buffet met the normal standards for a continental breakfast – waffles, protein, juice, muffins. And the dining room was a very pleasant sunlit space with a TV. (I was especially taken with the Texas-shaped waffles produced by the waffle maker. I wonder if any state can custom order state outline-producing waffle machines. My waffle state preferences: Oklahoma, Nevada and Maine. Ooh, could the manufacturer pull off the Hawaiian islands?? It wouldn’t be a satisfying breakfast, but I want to see it!)Otherwise, the surrounding area isn’t much of a draw (have you been to Mesquite, TX) but it’s cheaper than downtown Dallas. Value: 4/5My major knock against this hotel was the overall condition of my room’s sleeping quarters, which could be improved easily enough if management took minimal action. The hotel property was generally well-maintained and the staff was quite friendly.Total score: 27/35  My grade: 3.5 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.
+Customer Service: 5/5
+I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.
+Appearance: 2.5/5
+Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.
+The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping...To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.Customer Service: 5/5I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.Appearance: 2.5/5Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping staff; I assume they would report vandalism to management. Aside from the damage, the room was clean, though it didn’t smell so clean.Functions, Access &amp; Noise: 4.5/5So the bad news is that your room may be in disrepair. The good news is that stuff works. I had an outstanding wifi signal on my phone, laptop, and my streaming video device. I have found that signal strength tends to be weakest at the extreme ends of hallways, but not in this case. The signal was probably as strong as my own dedicated wifi at home. The TV had a decent picture. The A/C unit regulated the temperature nicely after adjustment.There was convenient parking right in front of the entrance. There is one elevator in this hotel.The hotel lives just off I-635. Traffic noise was not noticeable to me at night, but could be heard in the morning. If you’re a light sleeper, it might be an issue. Sleep Quality: 3.5/5The linens were not especially soft and had started to pill, but they were clean. The pillows were generously mushable and the mattress was a true medium-firm. My lower back was not complaining in the morning.Bath: 4/5A very clean and bright bathroom. A nice long mirror and plenty of counter space. The shower was above average for a budget hotel.Extras: 3.5/5I didn’t try the indoor pool or jacuzzi, but they appeared to be maintained well. The fitness room came with an adequate elliptical trainer and treadmill along with a multi-purpose machine. Towels, sanitizer, and water provided. The breakfast buffet met the normal standards for a continental breakfast – waffles, protein, juice, muffins. And the dining room was a very pleasant sunlit space with a TV. (I was especially taken with the Texas-shaped waffles produced by the waffle maker. I wonder if any state can custom order state outline-producing waffle machines. My waffle state preferences: Oklahoma, Nevada and Maine. Ooh, could the manufacturer pull off the Hawaiian islands?? It wouldn’t be a satisfying breakfast, but I want to see it!)Otherwise, the surrounding area isn’t much of a draw (have you been to Mesquite, TX) but it’s cheaper than downtown Dallas. Value: 4/5My major knock against this hotel was the overall condition of my room’s sleeping quarters, which could be improved easily enough if management took minimal action. The hotel property was generally well-maintained and the staff was quite friendly.Total score: 27/35  My grade: 3.5 starsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r318439349-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>318439349</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Superb-Highly Recommended</t>
+  </si>
+  <si>
+    <t>I have read the two most recent negative reviewers that allegedly stayed at this hotel.  I have to say that I stayed at the hotel at about  the same time they were there and my experience was just the opposite.  The room I had was clean and quiet.  The hot breakfast had a wide variety of items.The hotel has a nice indoor pool, functioning hot tub and a fitness center with machines that actually work!  Both the evening and morning staff were professional and courteous.   In fact, Mr. Shah, the manager, went out of his way to give me directions-that avoided major traffic hassles- to an appointment I had twenty miles away that morning.  So I have to really recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>I have read the two most recent negative reviewers that allegedly stayed at this hotel.  I have to say that I stayed at the hotel at about  the same time they were there and my experience was just the opposite.  The room I had was clean and quiet.  The hot breakfast had a wide variety of items.The hotel has a nice indoor pool, functioning hot tub and a fitness center with machines that actually work!  Both the evening and morning staff were professional and courteous.   In fact, Mr. Shah, the manager, went out of his way to give me directions-that avoided major traffic hassles- to an appointment I had twenty miles away that morning.  So I have to really recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r316085941-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>316085941</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Find another place to stay.  Partial renovation of room.  Looked like a failed DIY project!</t>
+  </si>
+  <si>
+    <t>The bedroom, furnishings, mattress, furniture was adequate with the exception of the lamps--the corner lamp was loose &amp; listing.  The bedside lamp shades were torn.  There was a small amount of paint on the carpet and the bed cover was lightly stained.  But it was the bathroom that was the worst;  Mildew stains around the tub; hot and cold taps reversed, paint poorly done; toilet seat wrong size and toilet wobbled when used; shower curtain too short (causing it to blow out to the room and the water to run on the floor); a hollow core door (isn't the bathroom door supposed to be solid core?).  The room was a real mess that looked like a weekend DIY project gone wrong.  Overall, pass this one by.  There is too much competition to have to put up with this poorly finished hotel.  We gave it a poor review and was told by management that they are in the process of renovation, but they should find another provider!Breakfast ok--the standard.  When I asked for the hard cooked eggs (which are standard), the woman smiled sweetly and said:  "The truck hasn't come in."  Really, bad planning or just too lazy to go to the store and get a few??MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>The bedroom, furnishings, mattress, furniture was adequate with the exception of the lamps--the corner lamp was loose &amp; listing.  The bedside lamp shades were torn.  There was a small amount of paint on the carpet and the bed cover was lightly stained.  But it was the bathroom that was the worst;  Mildew stains around the tub; hot and cold taps reversed, paint poorly done; toilet seat wrong size and toilet wobbled when used; shower curtain too short (causing it to blow out to the room and the water to run on the floor); a hollow core door (isn't the bathroom door supposed to be solid core?).  The room was a real mess that looked like a weekend DIY project gone wrong.  Overall, pass this one by.  There is too much competition to have to put up with this poorly finished hotel.  We gave it a poor review and was told by management that they are in the process of renovation, but they should find another provider!Breakfast ok--the standard.  When I asked for the hard cooked eggs (which are standard), the woman smiled sweetly and said:  "The truck hasn't come in."  Really, bad planning or just too lazy to go to the store and get a few??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r315711345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>315711345</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>mesquite - it rocks</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the accomadations.  As a result, I have future reservatons in place all ready.  The only problem I can think of was that I could not get the room temperature regulated to my liking MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the accomadations.  As a result, I have future reservatons in place all ready.  The only problem I can think of was that I could not get the room temperature regulated to my liking More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r313419355-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>313419355</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Loved everything.  Felt like the triple could hold 8 people but other than that it was a great stay.Felt very safe in the location.  The staff was very helpful. Would recommend this hotel to all my friends  MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Loved everything.  Felt like the triple could hold 8 people but other than that it was a great stay.Felt very safe in the location.  The staff was very helpful. Would recommend this hotel to all my friends  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r297604366-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>297604366</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Clean Friendly and Location close to nice Resturants</t>
+  </si>
+  <si>
+    <t>Hotel is clean with updated rooms and best friendly and professional staff ever. Check-in was easy and quick to my surprise was offered a bottle of water to cool off from the heat ( No charge). Comfortable bad and good sleep. Breakfast was perfect buffet. Definitely my location when I am in Mesquite.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is clean with updated rooms and best friendly and professional staff ever. Check-in was easy and quick to my surprise was offered a bottle of water to cool off from the heat ( No charge). Comfortable bad and good sleep. Breakfast was perfect buffet. Definitely my location when I am in Mesquite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r296729607-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>296729607</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>Great professional staff and excellent hotel. Our room was spotless and comfortable. Enjoyed the indoor pool and hot tub was perfect. Courteous staff and breakfast was delicious. on our way out we came to know the hotel was just renovated. Would definitely recommend if you staying in mesquite.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Great professional staff and excellent hotel. Our room was spotless and comfortable. Enjoyed the indoor pool and hot tub was perfect. Courteous staff and breakfast was delicious. on our way out we came to know the hotel was just renovated. Would definitely recommend if you staying in mesquite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r278399053-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>278399053</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Avoid this hotel</t>
+  </si>
+  <si>
+    <t>We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.
+This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.
+As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. 
+Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.
+On the way back to our room, I asked the desk clerk why he was harassing me. Although he told...We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.On the way back to our room, I asked the desk clerk why he was harassing me. Although he told me at check in to let him know if anything was not right that is obviously just a line they like to use and not mean. The GM came over and said, "You can't use the rings like that." My response was, and is, if this against the rules, then post them and I will gladly follow them.Five minutes after this conversation I was informed that the hotel could not accommodate me for the second night of my stay and that I needed to find another room. A headed discussion followed and i packed up our stuff. Before I could get anything packed, the GM came up to ensure that I was leaving and to tell me that I couldn't talk to his staff that way.While I agree that in disputes it's never ok to be petty, childish, or abusive, I also believe strongly that when you are in the customer service business and you explicitly ask the customer to bring issues to your attention, the thing to do is address the concerns and correct them as quickly as possible.I was thrown out of the Quality Inn of Mesquite, Texas for complaining to the manager about cleanliness of rooms, staff attitudes, and food handling issues. I was supposed to be refunded one nights stay. As of 11:00 pm on June 6, 2015 no credit has been made to my account. I spoke to corporate about this today and will do so again tomorrow.The bottom line is this: if you're going to Mesquite, Texas, stay somewhere besides the Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.
+This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.
+As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. 
+Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.
+On the way back to our room, I asked the desk clerk why he was harassing me. Although he told...We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.On the way back to our room, I asked the desk clerk why he was harassing me. Although he told me at check in to let him know if anything was not right that is obviously just a line they like to use and not mean. The GM came over and said, "You can't use the rings like that." My response was, and is, if this against the rules, then post them and I will gladly follow them.Five minutes after this conversation I was informed that the hotel could not accommodate me for the second night of my stay and that I needed to find another room. A headed discussion followed and i packed up our stuff. Before I could get anything packed, the GM came up to ensure that I was leaving and to tell me that I couldn't talk to his staff that way.While I agree that in disputes it's never ok to be petty, childish, or abusive, I also believe strongly that when you are in the customer service business and you explicitly ask the customer to bring issues to your attention, the thing to do is address the concerns and correct them as quickly as possible.I was thrown out of the Quality Inn of Mesquite, Texas for complaining to the manager about cleanliness of rooms, staff attitudes, and food handling issues. I was supposed to be refunded one nights stay. As of 11:00 pm on June 6, 2015 no credit has been made to my account. I spoke to corporate about this today and will do so again tomorrow.The bottom line is this: if you're going to Mesquite, Texas, stay somewhere besides the Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r133952255-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>133952255</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Rude manager</t>
+  </si>
+  <si>
+    <t>The hotel itself was not bad but the manager is very rude. Is there anyone that can get me the owner's infomation. Would NOT stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself was not bad but the manager is very rude. Is there anyone that can get me the owner's infomation. Would NOT stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r118116670-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>118116670</t>
+  </si>
+  <si>
+    <t>09/14/2011</t>
+  </si>
+  <si>
+    <t>Stayed on night and checked out!</t>
+  </si>
+  <si>
+    <t>This hotel is hard to find/get to, smelly, loud, dirty, uncomfortable bed and in a questionable area. I had stayed at the COMFORT SUITES in Mesquite the previous week and thought I would stay a bit closer to class and chose this location instead. BIG MISTAKE! I slept one night with my clothes on on top of the covers and check out the next day and went straight back to the COMFORT SUITES I stayed at the previous week.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This hotel is hard to find/get to, smelly, loud, dirty, uncomfortable bed and in a questionable area. I had stayed at the COMFORT SUITES in Mesquite the previous week and thought I would stay a bit closer to class and chose this location instead. BIG MISTAKE! I slept one night with my clothes on on top of the covers and check out the next day and went straight back to the COMFORT SUITES I stayed at the previous week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r85970312-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>85970312</t>
+  </si>
+  <si>
+    <t>11/04/2010</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>We were in Mesquite for a family wedding.  It was difficult to find the entrance to the hotel however we were pleasantly surprised at the value we received at this hotel once we found it.  The room was nice, bathroom clean.  The outdoor pool was small but clean and they let us use it late at night.  The best feature was the breakfast - fruit, yoghurt, muffins, sausages/bacon and eggs, and make-your-own waffles.  Perfect!!!  For the price you can't go wrong here!  Staff were friendly.  OK - so we had one little roach crawl in into our bathroom - we assumed through the ceiling vent - but it was summer after all - we killed it and we didn't see another one.  They tried hard.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We were in Mesquite for a family wedding.  It was difficult to find the entrance to the hotel however we were pleasantly surprised at the value we received at this hotel once we found it.  The room was nice, bathroom clean.  The outdoor pool was small but clean and they let us use it late at night.  The best feature was the breakfast - fruit, yoghurt, muffins, sausages/bacon and eggs, and make-your-own waffles.  Perfect!!!  For the price you can't go wrong here!  Staff were friendly.  OK - so we had one little roach crawl in into our bathroom - we assumed through the ceiling vent - but it was summer after all - we killed it and we didn't see another one.  They tried hard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13466796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>13466796</t>
+  </si>
+  <si>
+    <t>02/11/2008</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>We booked this motel through Choice Priveleges using our credit card points.  It is old and shabby.  The TV is awful and the water tasted like pesticide. Don't go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>We booked this motel through Choice Priveleges using our credit card points.  It is old and shabby.  The TV is awful and the water tasted like pesticide. Don't go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13161492-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>13161492</t>
+  </si>
+  <si>
+    <t>01/31/2008</t>
+  </si>
+  <si>
+    <t>The Worst Beds Ever</t>
+  </si>
+  <si>
+    <t>Not a very clean place, but even worse was the bed... that was the hardest bed my husband and I have EVER slept on.  We will never, ever go back to that hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>Not a very clean place, but even worse was the bed... that was the hardest bed my husband and I have EVER slept on.  We will never, ever go back to that hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r7712300-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>7712300</t>
+  </si>
+  <si>
+    <t>05/28/2007</t>
+  </si>
+  <si>
+    <t>Typical Comfort</t>
+  </si>
+  <si>
+    <t>Standard Comfort Inn, clean, nice lobby and breakfast area, large rooms, usual amenities, good breakfast with fruit and waffles. Friendly staff.Could use some signage. While where it is may be readily apparent from northbound 635 its not from southbound - or at least if it is, I missed it. Its not where any of the mapping programs plot it although if you saw the street sign and took the turn you would get there. I darn near drove by the closest road leading to it in the dark and rain since I was looking for a (surprise) Comfort Inn sign.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>Standard Comfort Inn, clean, nice lobby and breakfast area, large rooms, usual amenities, good breakfast with fruit and waffles. Friendly staff.Could use some signage. While where it is may be readily apparent from northbound 635 its not from southbound - or at least if it is, I missed it. Its not where any of the mapping programs plot it although if you saw the street sign and took the turn you would get there. I darn near drove by the closest road leading to it in the dark and rain since I was looking for a (surprise) Comfort Inn sign.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1845,3042 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>255</v>
+      </c>
+      <c r="X26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>280</v>
+      </c>
+      <c r="X30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>304</v>
+      </c>
+      <c r="X32" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>329</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s">
+        <v>329</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>338</v>
+      </c>
+      <c r="X36" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>346</v>
+      </c>
+      <c r="X37" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s">
+        <v>353</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>354</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>355</v>
+      </c>
+      <c r="X38" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>359</v>
+      </c>
+      <c r="J39" t="s">
+        <v>360</v>
+      </c>
+      <c r="K39" t="s">
+        <v>361</v>
+      </c>
+      <c r="L39" t="s">
+        <v>362</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>354</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>363</v>
+      </c>
+      <c r="X39" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>367</v>
+      </c>
+      <c r="J40" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" t="s">
+        <v>369</v>
+      </c>
+      <c r="L40" t="s">
+        <v>370</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>354</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>371</v>
+      </c>
+      <c r="X40" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" t="s">
+        <v>377</v>
+      </c>
+      <c r="L41" t="s">
+        <v>378</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>380</v>
+      </c>
+      <c r="X41" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" t="s">
+        <v>385</v>
+      </c>
+      <c r="K42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L42" t="s">
+        <v>387</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>388</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>380</v>
+      </c>
+      <c r="X42" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>391</v>
+      </c>
+      <c r="J43" t="s">
+        <v>392</v>
+      </c>
+      <c r="K43" t="s">
+        <v>393</v>
+      </c>
+      <c r="L43" t="s">
+        <v>394</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>380</v>
+      </c>
+      <c r="X43" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>380</v>
+      </c>
+      <c r="X44" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>380</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>410</v>
+      </c>
+      <c r="J46" t="s">
+        <v>411</v>
+      </c>
+      <c r="K46" t="s">
+        <v>412</v>
+      </c>
+      <c r="L46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>414</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>417</v>
+      </c>
+      <c r="J47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s">
+        <v>420</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>421</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L49" t="s">
+        <v>434</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>435</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>436</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>mtx1986</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Welcoming and knowledgeable staff. Caring breakfast attendent, made sure no one has to ask her to refill anything. Great pool and best clean rooms. No issues with anything I think of . Best internet as well.More</t>
   </si>
   <si>
+    <t>KristyandLilyDuchess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r562225231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We visited two weekends in Feb 2018 back to back due to a sick relative then the death of said relative. First weekend we booked two queen beds second weekend one king bed. These rooms are kept very clean. The beds are very comfortable. The staff makes sure to treat you amazing. I’ve been staying at this hotel for years. I don’t need to go anywhere else in Mesquite TX this hotel has everything I need. I give them a score of 100. They deserve it. Give them a try, you’ll be glad you did. Thanks staff. See you guys again soon.More</t>
   </si>
   <si>
+    <t>c0mf0rtable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r557434212-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Awesome hotel as usual from check in to check out. Very comfortable beds. The breakfast that I had was great, love the biscuits and gravy and then the hot chocolate was very good. Ordered from the menu in the room which was very convenient.More</t>
   </si>
   <si>
+    <t>Gerald B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489207808-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Clean rooms, easy access from I-635, recent remodeling made the motel much nicer.  No problem checking in or checking out.  Swimming pool and breakfast area were in close proximity to our room.  Parking was good.More</t>
   </si>
   <si>
+    <t>babiebell2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489019087-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>Hotel was a spur of the moment. We got the last room for a really good price. Has a great entry, nice comfy room, nice empty pool, quiet stay. There were No kids running around like the other hotels in mesquite! Will stay again. More</t>
   </si>
   <si>
+    <t>626cifuentes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r486097261-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Great service, manager acknowledges me by my name. He remembers my name .rooms are always clean and organized. Employees of the hotel are very friendly. Breakfast selection is always clean and food is fresh and hotMore</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r463282753-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>My young son and I stayed at Quality Inn for one night in February 2017.  We were in town for a competition and were basically just spending the night and eating breakfast the next morning.  The parking lot is well-lighted, and there was ample parking available.  Check in was very fast, and the man working at the front desk was very polite.The room was clean and had working AC/heat.  There were a nice variety of TV channels, including channels for kids (which my son approved of).  The beds were comfortable and clean.  The bathroom was also clean.  We did not use the shower, but the sink and toilet worked just fine.  There really weren't any noise problems in the hotel, either.  My son and I both had a good night's sleep.The complimentary breakfast (which starts at 6:30am) was the standard fare, with a mix of hot and cold items.  It was kept well-stocked, and there were quite a few tables for seating.  We glanced at the pool as we walked around, and it looked like your typical indoor pool.  There were a lot of kids having fun in there.This was a great hotel, and I highly recommend it to anyone who needs a good place to stay for a good price.More</t>
   </si>
   <si>
+    <t>meiltindle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r448911647-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Not very good shows to watch on tv. Communication between management and staff needs to be more understanding. There was a misunderstanding that the pool was actually opened not closed. The hot tub was out of order and staff confused it with the pool. At check in, the young lady told me the pool was closed. I had her call her manager because before I booked the room, I called to make sure the pool was opened and I was told yes. So the lady called her manager and was told the pool was open.  The first night with me there the kids swam. The next day I left my cousin with the kids in the room and my kids missed half of one day not swimming because the front desk staff told them the pool wasn't open. I finally spoke with my cousin that day and she told me what happened. I was so angry. I called and demanded answers. The lady at the desk was hesitate to help until I got annoyed and made her call her manager. The pool was opened and kids got to swim.Better communication neededMore</t>
   </si>
   <si>
+    <t>jesser677</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r444093577-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Friendly staff, clean rooms, comfortable beds. The internet went in and out sometimes, but overall it's a great place to stay. I will deffinatley be staying here again the next time I come through town!More</t>
   </si>
   <si>
+    <t>Jimmy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r432269884-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>We stayed here for three days and they had bugs . Also lots of traffic in and out and also have people just wondering around . The hotel needs to be updated and bugs need to go.  The breakfasr was okay More</t>
   </si>
   <si>
+    <t>jjlglobal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r427222897-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Excellent bbq restaurant next door. Convenience store within walking distance. If you want more options there are plenty across the freeway. The price was very reasonable. The location was right off the freeway.More</t>
   </si>
   <si>
+    <t>candyspeaks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r426795484-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>everything was excellent with one exception: the room had a foul odor; it was not strong but I could smell it. It smelled like someone with bad foot odor walked on the carpet. The service, pool, price, everything else was excellent.More</t>
   </si>
   <si>
+    <t>txwave69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r404327930-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>the whole quality inn experience here was outstanding and the staff were very professional,especially,Selena... I will always stay here when I am doing business in Dallas...Thank You very much Quality InnMore</t>
   </si>
   <si>
+    <t>Daniel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r401483231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>It was a very peaceful stay on all the employees were very courteous and attentive.  Place was very peaceful and quiet and very clean .  We thoroughly enjoyed our stay there .we will definitely consider staying there again when we come to MesquiteMore</t>
   </si>
   <si>
+    <t>Vanise N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r399264154-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>The locks where busted on the room door and bathroom door. There was a foul smell in the room, and holes I n the wall. They over charged me and had extremely poor customer service. I had to switch rooms 3 times and they where very careless about it.More</t>
   </si>
   <si>
+    <t>Wannagrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r391834796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>This is a very average hotel. However, that being said, breakfast was utilitarian but good, room was clean, air-conditioning was cold, front desk staff was very polite, and our room was ready when we got there.  I have no complaint. The hotel gets three stars because of the few construction and maintenance issues. The room was really kind of funny, because they had cut the mirror out to go around towel racks because original construction or finish construction didn't know what they were doing, and the painting crew took the term holiday to apply to their painting ability LOL.  I would stay at this hotel again. More</t>
   </si>
   <si>
+    <t>jcjackson228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r389007874-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>Nice outer appearance. Staff was friendly. On the inside, some painting and repairs could be done. Room bathroom also needs repairing. Room was stuffy; had an odor that went away after the ran the air a few minutes. Hot tub was out of order. Breakfast was delicious. More</t>
   </si>
   <si>
+    <t>Charlotte B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r386800491-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>My stay is always AWESOME!!! I would highly recommend anybody to stay there.The staff is always friendly and very courteous. You are always welcomed there with a smile on their faces. The hotel is very clean and if something is wrong it will be taken care of promptly.More</t>
   </si>
   <si>
+    <t>LaMontra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r385113710-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>I will come back again  as long as A K Patel is still there and the rest of the staff breakfast  was great  just nice and clean up to date place  I rate it 9 for trip advisor comments  and suggestions it always  freshMore</t>
   </si>
   <si>
+    <t>qtpie2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r384045523-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>The staff were extremely friendly and nice. That certainly balanced out for the old condition of the hotel. I sunk into the bed and my back was sore due to the softness of the bed. The shower knob was tight and I had difficulty pulling the knob for the shower head to dispense. The age of the room and furniture was not the most visually pleasing nor comfortable. I think the age of the room contributed to the musty odor. More</t>
   </si>
   <si>
+    <t>LadyLaruli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r383017279-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>I will not EVER go to this motel again.The shower did not work, the room was stupid hot on arrival and 2 hours later the a/c still hadn't caught up, the bed was soft and lumpy, and the whole place had a dirty feel.To top it off, when I complained the staff said - so are you checking out?  I said yes and left.  NEVER AGAIN!More</t>
   </si>
   <si>
+    <t>Front_Porch_Sitting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367374661-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>For a Quality Inn this was a great stay. Rooms clean and staff was very nice. Close to the interstate. If we had to say anything about it that we did not like it would be that it is not in the best part of town.More</t>
   </si>
   <si>
+    <t>Mj C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367009764-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>Was VERY impressed with room and service. Very clean and VERY nice at desk. Stayed two nights and room was clean upon returning. Will stay again at our next trip up. Rates were great also. Great lighting out side at night also. Room had microwave, Frig, iron, ironing board, coffee, tv, and Wi-FiMore</t>
   </si>
   <si>
+    <t>Denise K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r358826417-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>We enjoyed our stay and will stop there again when traveling through that part of Texas.  The clerk at he front desk was very friendly and helpful. Our room was clean and comfortable. The breakfast was tasty and hit the spot for this traveler.More</t>
   </si>
   <si>
+    <t>awood7819</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r353857182-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -792,6 +867,9 @@
     <t>Friendly and professional staff. Cleanliness is great. Loved staying here. Breakfast was always hot and fresh. Indoor pool and hot tub are great extras. Really feels like you are in the comfort of your own home. More</t>
   </si>
   <si>
+    <t>Roxane G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r350809789-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>The management will open the door for anyone that states they are sharing a room with you.  Without ID or confirmation.  If safety is a concern, I highly recommend you find a different hotel.  Management is rude and accommodating. More</t>
   </si>
   <si>
+    <t>leeaO4303UF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r346432939-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>I love this place I strongly recommend this place because it's better than anything else around plus it's in a great neighbor hood and the service so great and the food so good and the front desk staff so nice and helpful More</t>
   </si>
   <si>
+    <t>Molly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r342006336-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>We arrived late and our room was ready and clean. We didn't have any issues and I will definitely stay there again when I am in the Mesquite area or anywhere close? I did not request a room on lower level but was thankful it was on bottom level.More</t>
   </si>
   <si>
+    <t>bella252016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r341696920-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -885,6 +972,9 @@
     <t>There was bugs in the restroom and something on the blankets I ended up with a rash. Please fix that. Didn't want to make a report on it while I was still there and cause a scene this is the first time it has happened regarding I've stayed there several times before.More</t>
   </si>
   <si>
+    <t>Diane T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r337748163-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1002,9 @@
     <t>We went to Texas over Christmas. I just want to say thank you to the house keepers. They had my room nice and clean everyday, and helped me with all my needs.  Nothing was taken or missing from our room.  I enjoyed the pool everyday.  The young lady who took care of the breakfast room kept the food fresh and stocked.  It was better than I expected and she kept the area nice and clean.  It was inviting. She also informed me of washing machines upstairs and I was able to wash my clothes right there in the building. I also felt safe. I would take my family there again. It would have been better had I gotten a little better price for my stay.  How can I get a coupon or discount for next time?More</t>
   </si>
   <si>
+    <t>nunnie2k12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r330286440-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1032,9 @@
     <t>Me n my dude enjoy our selfbreally nice hotel guest house keeper are great couldn't been no better will stay here every time I come to dallas good for the price good breakfast nice area n great parking love the pool More</t>
   </si>
   <si>
+    <t>kamekah712</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r328801736-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1059,9 @@
     <t>We really enjoyed our stay. Staff was very professional and went out their way to make our stay great. Indoor heated poor and Fitness room were great accommodations. We will definitely be staying again. More</t>
   </si>
   <si>
+    <t>stephenkO9071KG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r327511944-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1086,9 @@
     <t>The whole place smelt like wet dog. My room even worse with the lack of air flow. The furniture looked like it came from my great grandmas house. Way over priced for what you get, I've stayed in $50 rooms that were a lot nicer.More</t>
   </si>
   <si>
+    <t>jayneeng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r324373142-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1117,9 @@
   </si>
   <si>
     <t>it was a good stay. the only thing that needs to be fixed is that the web price said $65.00 but when I got there it was $75.00. the staff member at the desk said that the home office has not updated the web to the current price, which I should have gotten the $65.00 because that was what was advertised. other than that it was a nice stay..More</t>
+  </si>
+  <si>
+    <t>bluesdog</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r322520345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1051,6 +1156,9 @@
 The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping...To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.Customer Service: 5/5I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.Appearance: 2.5/5Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping staff; I assume they would report vandalism to management. Aside from the damage, the room was clean, though it didn’t smell so clean.Functions, Access &amp; Noise: 4.5/5So the bad news is that your room may be in disrepair. The good news is that stuff works. I had an outstanding wifi signal on my phone, laptop, and my streaming video device. I have found that signal strength tends to be weakest at the extreme ends of hallways, but not in this case. The signal was probably as strong as my own dedicated wifi at home. The TV had a decent picture. The A/C unit regulated the temperature nicely after adjustment.There was convenient parking right in front of the entrance. There is one elevator in this hotel.The hotel lives just off I-635. Traffic noise was not noticeable to me at night, but could be heard in the morning. If you’re a light sleeper, it might be an issue. Sleep Quality: 3.5/5The linens were not especially soft and had started to pill, but they were clean. The pillows were generously mushable and the mattress was a true medium-firm. My lower back was not complaining in the morning.Bath: 4/5A very clean and bright bathroom. A nice long mirror and plenty of counter space. The shower was above average for a budget hotel.Extras: 3.5/5I didn’t try the indoor pool or jacuzzi, but they appeared to be maintained well. The fitness room came with an adequate elliptical trainer and treadmill along with a multi-purpose machine. Towels, sanitizer, and water provided. The breakfast buffet met the normal standards for a continental breakfast – waffles, protein, juice, muffins. And the dining room was a very pleasant sunlit space with a TV. (I was especially taken with the Texas-shaped waffles produced by the waffle maker. I wonder if any state can custom order state outline-producing waffle machines. My waffle state preferences: Oklahoma, Nevada and Maine. Ooh, could the manufacturer pull off the Hawaiian islands?? It wouldn’t be a satisfying breakfast, but I want to see it!)Otherwise, the surrounding area isn’t much of a draw (have you been to Mesquite, TX) but it’s cheaper than downtown Dallas. Value: 4/5My major knock against this hotel was the overall condition of my room’s sleeping quarters, which could be improved easily enough if management took minimal action. The hotel property was generally well-maintained and the staff was quite friendly.Total score: 27/35  My grade: 3.5 starsMore</t>
   </si>
   <si>
+    <t>ACFlorida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r318439349-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1183,9 @@
     <t>I have read the two most recent negative reviewers that allegedly stayed at this hotel.  I have to say that I stayed at the hotel at about  the same time they were there and my experience was just the opposite.  The room I had was clean and quiet.  The hot breakfast had a wide variety of items.The hotel has a nice indoor pool, functioning hot tub and a fitness center with machines that actually work!  Both the evening and morning staff were professional and courteous.   In fact, Mr. Shah, the manager, went out of his way to give me directions-that avoided major traffic hassles- to an appointment I had twenty miles away that morning.  So I have to really recommend this hotel.More</t>
   </si>
   <si>
+    <t>pepper13420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r316085941-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1213,9 @@
     <t>The bedroom, furnishings, mattress, furniture was adequate with the exception of the lamps--the corner lamp was loose &amp; listing.  The bedside lamp shades were torn.  There was a small amount of paint on the carpet and the bed cover was lightly stained.  But it was the bathroom that was the worst;  Mildew stains around the tub; hot and cold taps reversed, paint poorly done; toilet seat wrong size and toilet wobbled when used; shower curtain too short (causing it to blow out to the room and the water to run on the floor); a hollow core door (isn't the bathroom door supposed to be solid core?).  The room was a real mess that looked like a weekend DIY project gone wrong.  Overall, pass this one by.  There is too much competition to have to put up with this poorly finished hotel.  We gave it a poor review and was told by management that they are in the process of renovation, but they should find another provider!Breakfast ok--the standard.  When I asked for the hard cooked eggs (which are standard), the woman smiled sweetly and said:  "The truck hasn't come in."  Really, bad planning or just too lazy to go to the store and get a few??More</t>
   </si>
   <si>
+    <t>user341211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r315711345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1240,9 @@
     <t>I was very satisfied with the accomadations.  As a result, I have future reservatons in place all ready.  The only problem I can think of was that I could not get the room temperature regulated to my liking More</t>
   </si>
   <si>
+    <t>Tara F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r313419355-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1267,9 @@
     <t>Loved everything.  Felt like the triple could hold 8 people but other than that it was a great stay.Felt very safe in the location.  The staff was very helpful. Would recommend this hotel to all my friends  More</t>
   </si>
   <si>
+    <t>J B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r297604366-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1297,9 @@
     <t>Hotel is clean with updated rooms and best friendly and professional staff ever. Check-in was easy and quick to my surprise was offered a bottle of water to cool off from the heat ( No charge). Comfortable bad and good sleep. Breakfast was perfect buffet. Definitely my location when I am in Mesquite.More</t>
   </si>
   <si>
+    <t>Juanita S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r296729607-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1319,9 @@
   </si>
   <si>
     <t>Great professional staff and excellent hotel. Our room was spotless and comfortable. Enjoyed the indoor pool and hot tub was perfect. Courteous staff and breakfast was delicious. on our way out we came to know the hotel was just renovated. Would definitely recommend if you staying in mesquite.More</t>
+  </si>
+  <si>
+    <t>derek1836</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r278399053-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1224,6 +1350,9 @@
 On the way back to our room, I asked the desk clerk why he was harassing me. Although he told...We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.On the way back to our room, I asked the desk clerk why he was harassing me. Although he told me at check in to let him know if anything was not right that is obviously just a line they like to use and not mean. The GM came over and said, "You can't use the rings like that." My response was, and is, if this against the rules, then post them and I will gladly follow them.Five minutes after this conversation I was informed that the hotel could not accommodate me for the second night of my stay and that I needed to find another room. A headed discussion followed and i packed up our stuff. Before I could get anything packed, the GM came up to ensure that I was leaving and to tell me that I couldn't talk to his staff that way.While I agree that in disputes it's never ok to be petty, childish, or abusive, I also believe strongly that when you are in the customer service business and you explicitly ask the customer to bring issues to your attention, the thing to do is address the concerns and correct them as quickly as possible.I was thrown out of the Quality Inn of Mesquite, Texas for complaining to the manager about cleanliness of rooms, staff attitudes, and food handling issues. I was supposed to be refunded one nights stay. As of 11:00 pm on June 6, 2015 no credit has been made to my account. I spoke to corporate about this today and will do so again tomorrow.The bottom line is this: if you're going to Mesquite, Texas, stay somewhere besides the Quality Inn.More</t>
   </si>
   <si>
+    <t>unhappy78guest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r133952255-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1371,9 @@
     <t>The hotel itself was not bad but the manager is very rude. Is there anyone that can get me the owner's infomation. Would NOT stay at this location again.More</t>
   </si>
   <si>
+    <t>Trisha6341</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r118116670-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1395,9 @@
     <t>This hotel is hard to find/get to, smelly, loud, dirty, uncomfortable bed and in a questionable area. I had stayed at the COMFORT SUITES in Mesquite the previous week and thought I would stay a bit closer to class and chose this location instead. BIG MISTAKE! I slept one night with my clothes on on top of the covers and check out the next day and went straight back to the COMFORT SUITES I stayed at the previous week.More</t>
   </si>
   <si>
+    <t>ruth044</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r85970312-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1419,9 @@
     <t>We were in Mesquite for a family wedding.  It was difficult to find the entrance to the hotel however we were pleasantly surprised at the value we received at this hotel once we found it.  The room was nice, bathroom clean.  The outdoor pool was small but clean and they let us use it late at night.  The best feature was the breakfast - fruit, yoghurt, muffins, sausages/bacon and eggs, and make-your-own waffles.  Perfect!!!  For the price you can't go wrong here!  Staff were friendly.  OK - so we had one little roach crawl in into our bathroom - we assumed through the ceiling vent - but it was summer after all - we killed it and we didn't see another one.  They tried hard.More</t>
   </si>
   <si>
+    <t>Anchor97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13466796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1443,9 @@
     <t>We booked this motel through Choice Priveleges using our credit card points.  It is old and shabby.  The TV is awful and the water tasted like pesticide. Don't go there.More</t>
   </si>
   <si>
+    <t>MeMeTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13161492-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1465,9 @@
   </si>
   <si>
     <t>Not a very clean place, but even worse was the bed... that was the hardest bed my husband and I have EVER slept on.  We will never, ever go back to that hotel again.More</t>
+  </si>
+  <si>
+    <t>Greg126</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r7712300-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1849,43 +1993,47 @@
       <c r="A2" t="n">
         <v>36734</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1897,56 +2045,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36734</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1958,56 +2110,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36734</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2019,56 +2175,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36734</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2080,56 +2240,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36734</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174317</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2141,56 +2305,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36734</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2202,56 +2370,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36734</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2269,56 +2441,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36734</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2330,56 +2506,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36734</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2391,56 +2571,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36734</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>14723</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2452,56 +2636,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36734</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2513,56 +2701,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36734</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2574,56 +2766,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36734</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2635,56 +2831,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36734</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>757</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2696,47 +2896,51 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36734</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2753,56 +2957,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36734</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174325</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2814,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36734</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174326</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2875,56 +3087,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36734</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>108524</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2936,56 +3152,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36734</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2997,56 +3217,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36734</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174328</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3058,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36734</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174329</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3125,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36734</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3192,47 +3424,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36734</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -3249,56 +3485,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36734</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>20607</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3310,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36734</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3371,47 +3615,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36734</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174333</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -3428,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36734</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174334</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3489,56 +3741,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36734</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>24987</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3550,56 +3806,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36734</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174335</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3611,56 +3871,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36734</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>40558</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3678,56 +3942,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36734</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174336</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3739,56 +4007,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36734</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174337</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3800,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36734</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174338</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3861,56 +4137,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36734</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174339</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3932,56 +4212,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="X35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36734</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>70757</v>
+      </c>
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3997,47 +4281,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36734</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -4054,56 +4342,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="X37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36734</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4117,56 +4409,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="X38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="Y38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36734</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174342</v>
+      </c>
+      <c r="C39" t="s">
+        <v>395</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4188,56 +4484,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="X39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36734</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174343</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="J40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4259,56 +4559,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="X40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36734</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>5237</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4326,56 +4630,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36734</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>174344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>423</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="J42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="K42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="L42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4393,56 +4701,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36734</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174345</v>
+      </c>
+      <c r="C43" t="s">
+        <v>431</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="L43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4454,47 +4766,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X43" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36734</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="L44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4521,56 +4837,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X44" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36734</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174347</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="O45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4590,56 +4910,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X45" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36734</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>453</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4661,56 +4985,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Y46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36734</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174349</v>
+      </c>
+      <c r="C47" t="s">
+        <v>461</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="J47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="K47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="L47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4732,56 +5060,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36734</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174350</v>
+      </c>
+      <c r="C48" t="s">
+        <v>469</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4803,56 +5135,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X48" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36734</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>477</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4872,13 +5208,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_631.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>mtx1986</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r599349662-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>106631</t>
+  </si>
+  <si>
+    <t>599349662</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Terrific staff!</t>
+  </si>
+  <si>
+    <t>We stayed nine days for a national tournament and we were far from disappointed. The manager was wonderful. He helped us out whenever we had a question and didn't balk when we decided to keep the King bed room (sending our teen to stay with friends) instead of the double we had booked originally. The cleaning staff was lovely but as they don't offer fresh towels or linens often (water conservancy), we sometimes had to chase down a new washcloth. Our room was clean and well-appointed. It was 105+ degrees while we were there so it wasn't always that cool and got a little musty by the end of our stay (likely a weather issue, not a hotel issue). The hotel is very conveniently located to Dallas, but there is currently construction on the main road, blocking the lane closest to the entrance. It wasn't a problem once you got used to knowing where to turn. There are also many good restaurants in the area.We gratefully used the laundry (one washer and dryer upstairs) on our last day. We did not use the pool but it seemed clean.The only drawback was the lack of variety in the the breakfast offerings. Eight consecutive days of rubber egg rounds and sausage and I was more than ready for something new and different. Happy to have the free food, but wish it could be changed up a bit sometimes.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed nine days for a national tournament and we were far from disappointed. The manager was wonderful. He helped us out whenever we had a question and didn't balk when we decided to keep the King bed room (sending our teen to stay with friends) instead of the double we had booked originally. The cleaning staff was lovely but as they don't offer fresh towels or linens often (water conservancy), we sometimes had to chase down a new washcloth. Our room was clean and well-appointed. It was 105+ degrees while we were there so it wasn't always that cool and got a little musty by the end of our stay (likely a weather issue, not a hotel issue). The hotel is very conveniently located to Dallas, but there is currently construction on the main road, blocking the lane closest to the entrance. It wasn't a problem once you got used to knowing where to turn. There are also many good restaurants in the area.We gratefully used the laundry (one washer and dryer upstairs) on our last day. We did not use the pool but it seemed clean.The only drawback was the lack of variety in the the breakfast offerings. Eight consecutive days of rubber egg rounds and sausage and I was more than ready for something new and different. Happy to have the free food, but wish it could be changed up a bit sometimes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r579514347-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>579514347</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>It was late when we arrived. Front desk agent was really welcoming and checked us in. Guided us to the room. Gave us goodie bag. Very pleasant check in. Room was clean, comfortable beds and spotless. Morning breakfast was great. Too many options. Definitely worth the price I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>It was late when we arrived. Front desk agent was really welcoming and checked us in. Guided us to the room. Gave us goodie bag. Very pleasant check in. Room was clean, comfortable beds and spotless. Morning breakfast was great. Too many options. Definitely worth the price I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r574644028-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>574644028</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>We went back for a second night.</t>
+  </si>
+  <si>
+    <t>Stay was good enough the first night that when we didn't get to go home when expected we went for the second night. Clerk that checked us in the first night was friendly and in fact he was there the second night when we went back and he remembered us. The one that checked us out was very thoughtful. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Stay was good enough the first night that when we didn't get to go home when expected we went for the second night. Clerk that checked us in the first night was friendly and in fact he was there the second night when we went back and he remembered us. The one that checked us out was very thoughtful. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r573155613-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
-    <t>56280</t>
-  </si>
-  <si>
-    <t>106631</t>
-  </si>
-  <si>
     <t>573155613</t>
   </si>
   <si>
@@ -177,12 +258,6 @@
     <t>Welcoming and knowledgeable staff. Caring breakfast attendent, made sure no one has to ask her to refill anything. Great pool and best clean rooms. No issues with anything I think of . Best internet as well.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -192,9 +267,6 @@
     <t>Welcoming and knowledgeable staff. Caring breakfast attendent, made sure no one has to ask her to refill anything. Great pool and best clean rooms. No issues with anything I think of . Best internet as well.More</t>
   </si>
   <si>
-    <t>KristyandLilyDuchess</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r562225231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -225,9 +297,6 @@
     <t>We visited two weekends in Feb 2018 back to back due to a sick relative then the death of said relative. First weekend we booked two queen beds second weekend one king bed. These rooms are kept very clean. The beds are very comfortable. The staff makes sure to treat you amazing. I’ve been staying at this hotel for years. I don’t need to go anywhere else in Mesquite TX this hotel has everything I need. I give them a score of 100. They deserve it. Give them a try, you’ll be glad you did. Thanks staff. See you guys again soon.More</t>
   </si>
   <si>
-    <t>c0mf0rtable</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r557434212-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -258,7 +327,61 @@
     <t>Awesome hotel as usual from check in to check out. Very comfortable beds. The breakfast that I had was great, love the biscuits and gravy and then the hot chocolate was very good. Ordered from the menu in the room which was very convenient.More</t>
   </si>
   <si>
-    <t>Gerald B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r539099559-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>539099559</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>All I need is nice clean and fresh room, which I experienced in this hotel only in mesquite. Great friendly staff and fresh breakfast. Indoor pool was fantastic as  the water was nice and warm which you hardly see at hotels. Property seems  getting modernize every time  i stay there.  lastly very safe and nice environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>All I need is nice clean and fresh room, which I experienced in this hotel only in mesquite. Great friendly staff and fresh breakfast. Indoor pool was fantastic as  the water was nice and warm which you hardly see at hotels. Property seems  getting modernize every time  i stay there.  lastly very safe and nice environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r510791832-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>510791832</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Keep Driving</t>
+  </si>
+  <si>
+    <t>The hotel is located in a questionable area (drive around and you'll see).  Arrived the hotel in the evening to find the front-desk unmanned and a sign stating that the employee would "be back in 10 minutes".  We waited in the lobby to check-in until the employee returned.  The room I stayed in was outdated and the furniture was in bad shape, included chipped/broken wood, pealing laminate, and some gross stains all over the couch (your guess is as good as mine).  The room had a musky and cigarette smoke smell, although I asked for a non-smoking room.  Either way, very strong, nasty, smell.  The only bright-side for this hotel is the reasonable cost.  That aside, there are much better options available in the area.  Can't recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is located in a questionable area (drive around and you'll see).  Arrived the hotel in the evening to find the front-desk unmanned and a sign stating that the employee would "be back in 10 minutes".  We waited in the lobby to check-in until the employee returned.  The room I stayed in was outdated and the furniture was in bad shape, included chipped/broken wood, pealing laminate, and some gross stains all over the couch (your guess is as good as mine).  The room had a musky and cigarette smoke smell, although I asked for a non-smoking room.  Either way, very strong, nasty, smell.  The only bright-side for this hotel is the reasonable cost.  That aside, there are much better options available in the area.  Can't recommend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489207808-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -288,9 +411,6 @@
     <t>Clean rooms, easy access from I-635, recent remodeling made the motel much nicer.  No problem checking in or checking out.  Swimming pool and breakfast area were in close proximity to our room.  Parking was good.More</t>
   </si>
   <si>
-    <t>babiebell2007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r489019087-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -306,9 +426,6 @@
     <t>Hotel was a spur of the moment. We got the last room for a really good price. Has a great entry, nice comfy room, nice empty pool, quiet stay. There were No kids running around like the other hotels in mesquite! Will stay again. More</t>
   </si>
   <si>
-    <t>626cifuentes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r486097261-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -336,7 +453,55 @@
     <t>Great service, manager acknowledges me by my name. He remembers my name .rooms are always clean and organized. Employees of the hotel are very friendly. Breakfast selection is always clean and food is fresh and hotMore</t>
   </si>
   <si>
-    <t>Jennifer S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r481612635-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>481612635</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>My visit here was excellent. The room was clean, the bed was comfortable, &amp; the customer service was great. Very friendly staff and accommodating. I stay here several times a year. I keep coming back because there is a lot of bang for my buck. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>My visit here was excellent. The room was clean, the bed was comfortable, &amp; the customer service was great. Very friendly staff and accommodating. I stay here several times a year. I keep coming back because there is a lot of bang for my buck. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r478625302-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>478625302</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Served its purpose for our 1 night stay</t>
+  </si>
+  <si>
+    <t>I normally wouldn't have stayed here just because I don't like INN's and more HOTELS that are known like Marriott but we just needed a hotel room for 1 night while we were in town and this hotel offered the indoor Jacuzzi and pool and free breakfast plus was close to the highway and the price was decent. Customer Service at check in was good, our room was clean. I will say the pillow cases were kind of starchy and hard and the pillows not comfortable and very small also I'm not sure how often they WASH the sheets or pillow cases but we were kinda itchy laying on the sheets but I had my own blanket so we slept on top of the comforter instead. We didn't eat the free breakfast it was your basic continental breakfast with a make your own waffle, fruit, juice, Danish. We did use the pool and the Jacuzzi and both were clean and useful. We didn't spend a lot of time in the room so this stay was just what we needed it for just somewhere to stay for 1 night.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I normally wouldn't have stayed here just because I don't like INN's and more HOTELS that are known like Marriott but we just needed a hotel room for 1 night while we were in town and this hotel offered the indoor Jacuzzi and pool and free breakfast plus was close to the highway and the price was decent. Customer Service at check in was good, our room was clean. I will say the pillow cases were kind of starchy and hard and the pillows not comfortable and very small also I'm not sure how often they WASH the sheets or pillow cases but we were kinda itchy laying on the sheets but I had my own blanket so we slept on top of the comforter instead. We didn't eat the free breakfast it was your basic continental breakfast with a make your own waffle, fruit, juice, Danish. We did use the pool and the Jacuzzi and both were clean and useful. We didn't spend a lot of time in the room so this stay was just what we needed it for just somewhere to stay for 1 night.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r463282753-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -366,9 +531,6 @@
     <t>My young son and I stayed at Quality Inn for one night in February 2017.  We were in town for a competition and were basically just spending the night and eating breakfast the next morning.  The parking lot is well-lighted, and there was ample parking available.  Check in was very fast, and the man working at the front desk was very polite.The room was clean and had working AC/heat.  There were a nice variety of TV channels, including channels for kids (which my son approved of).  The beds were comfortable and clean.  The bathroom was also clean.  We did not use the shower, but the sink and toilet worked just fine.  There really weren't any noise problems in the hotel, either.  My son and I both had a good night's sleep.The complimentary breakfast (which starts at 6:30am) was the standard fare, with a mix of hot and cold items.  It was kept well-stocked, and there were quite a few tables for seating.  We glanced at the pool as we walked around, and it looked like your typical indoor pool.  There were a lot of kids having fun in there.This was a great hotel, and I highly recommend it to anyone who needs a good place to stay for a good price.More</t>
   </si>
   <si>
-    <t>meiltindle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r448911647-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -396,9 +558,6 @@
     <t>Not very good shows to watch on tv. Communication between management and staff needs to be more understanding. There was a misunderstanding that the pool was actually opened not closed. The hot tub was out of order and staff confused it with the pool. At check in, the young lady told me the pool was closed. I had her call her manager because before I booked the room, I called to make sure the pool was opened and I was told yes. So the lady called her manager and was told the pool was open.  The first night with me there the kids swam. The next day I left my cousin with the kids in the room and my kids missed half of one day not swimming because the front desk staff told them the pool wasn't open. I finally spoke with my cousin that day and she told me what happened. I was so angry. I called and demanded answers. The lady at the desk was hesitate to help until I got annoyed and made her call her manager. The pool was opened and kids got to swim.Better communication neededMore</t>
   </si>
   <si>
-    <t>jesser677</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r444093577-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -426,7 +585,46 @@
     <t>Friendly staff, clean rooms, comfortable beds. The internet went in and out sometimes, but overall it's a great place to stay. I will deffinatley be staying here again the next time I come through town!More</t>
   </si>
   <si>
-    <t>Jimmy W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r442631729-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>442631729</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Exceeded expectations!</t>
+  </si>
+  <si>
+    <t>Stayed here a week for a business conference. Everything was great. The room was large and roomy, great shops nearby, and the complimentary breakfast was very good. If I'm ever in town again, I'll definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here a week for a business conference. Everything was great. The room was large and roomy, great shops nearby, and the complimentary breakfast was very good. If I'm ever in town again, I'll definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r441562490-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>441562490</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>We just happened to stop, it was closed to where we needed to be.  The clerk was very pleasant and helpful.  Very nice.He should be up for management.  He gave us menus for dinner.  Just can't say enough about his pleasant personality.  We would stay there again if we are in that area. Only because of his terrific attitude!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just happened to stop, it was closed to where we needed to be.  The clerk was very pleasant and helpful.  Very nice.He should be up for management.  He gave us menus for dinner.  Just can't say enough about his pleasant personality.  We would stay there again if we are in that area. Only because of his terrific attitude!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r432269884-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -447,18 +645,9 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded December 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 9, 2016</t>
-  </si>
-  <si>
     <t>We stayed here for three days and they had bugs . Also lots of traffic in and out and also have people just wondering around . The hotel needs to be updated and bugs need to go.  The breakfasr was okay More</t>
   </si>
   <si>
-    <t>jjlglobal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r427222897-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -486,9 +675,6 @@
     <t>Excellent bbq restaurant next door. Convenience store within walking distance. If you want more options there are plenty across the freeway. The price was very reasonable. The location was right off the freeway.More</t>
   </si>
   <si>
-    <t>candyspeaks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r426795484-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -513,7 +699,55 @@
     <t>everything was excellent with one exception: the room had a foul odor; it was not strong but I could smell it. It smelled like someone with bad foot odor walked on the carpet. The service, pool, price, everything else was excellent.More</t>
   </si>
   <si>
-    <t>txwave69</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r415321945-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>415321945</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>Convenient location, nice and clean and good price. Stayed here last spring, a few things were a little below par this time, awful pillows (all 4 of them), no stopper for the bathtub, a very old worn out small sofa, not comfortable at all. Would still stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Convenient location, nice and clean and good price. Stayed here last spring, a few things were a little below par this time, awful pillows (all 4 of them), no stopper for the bathtub, a very old worn out small sofa, not comfortable at all. Would still stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r404865203-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>404865203</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>Staff was very helpful. But hotel could use some updates. Breakfast was lacking and room had a bad smell. Beds were comfortable and clean. Indoor pool was nice. For the money it was ok. My husband loved the espresso machine.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Staff was very helpful. But hotel could use some updates. Breakfast was lacking and room had a bad smell. Beds were comfortable and clean. Indoor pool was nice. For the money it was ok. My husband loved the espresso machine.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r404327930-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -531,21 +765,9 @@
     <t>the whole quality inn experience here was outstanding and the staff were very professional,especially,Selena... I will always stay here when I am doing business in Dallas...Thank You very much Quality InnMoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 15, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 15, 2016</t>
-  </si>
-  <si>
     <t>the whole quality inn experience here was outstanding and the staff were very professional,especially,Selena... I will always stay here when I am doing business in Dallas...Thank You very much Quality InnMore</t>
   </si>
   <si>
-    <t>Daniel S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r401483231-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -573,9 +795,6 @@
     <t>It was a very peaceful stay on all the employees were very courteous and attentive.  Place was very peaceful and quiet and very clean .  We thoroughly enjoyed our stay there .we will definitely consider staying there again when we come to MesquiteMore</t>
   </si>
   <si>
-    <t>Vanise N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r399264154-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -600,7 +819,52 @@
     <t>The locks where busted on the room door and bathroom door. There was a foul smell in the room, and holes I n the wall. They over charged me and had extremely poor customer service. I had to switch rooms 3 times and they where very careless about it.More</t>
   </si>
   <si>
-    <t>Wannagrad</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r398612665-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>398612665</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Good quality for the money, comfortable bed, nice furnishings. Clean, well equipped, well maintained. Breakfast was good, good selection. Good location, easy access to I-635. Good number of restaurants in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Good quality for the money, comfortable bed, nice furnishings. Clean, well equipped, well maintained. Breakfast was good, good selection. Good location, easy access to I-635. Good number of restaurants in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r396811756-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>396811756</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>All smiles</t>
+  </si>
+  <si>
+    <t>Toilet had mildew under its rim which was visible from tub.  Front desk was very friendly and provided extra towels upon my request.  I was able to use my points for this stay so overall room was very nice!I would stay at this location again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Toilet had mildew under its rim which was visible from tub.  Front desk was very friendly and provided extra towels upon my request.  I was able to use my points for this stay so overall room was very nice!I would stay at this location again.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r391834796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -627,9 +891,6 @@
     <t>This is a very average hotel. However, that being said, breakfast was utilitarian but good, room was clean, air-conditioning was cold, front desk staff was very polite, and our room was ready when we got there.  I have no complaint. The hotel gets three stars because of the few construction and maintenance issues. The room was really kind of funny, because they had cut the mirror out to go around towel racks because original construction or finish construction didn't know what they were doing, and the painting crew took the term holiday to apply to their painting ability LOL.  I would stay at this hotel again. More</t>
   </si>
   <si>
-    <t>jcjackson228</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r389007874-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -654,9 +915,6 @@
     <t>Nice outer appearance. Staff was friendly. On the inside, some painting and repairs could be done. Room bathroom also needs repairing. Room was stuffy; had an odor that went away after the ran the air a few minutes. Hot tub was out of order. Breakfast was delicious. More</t>
   </si>
   <si>
-    <t>Charlotte B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r386800491-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -684,7 +942,43 @@
     <t>My stay is always AWESOME!!! I would highly recommend anybody to stay there.The staff is always friendly and very courteous. You are always welcomed there with a smile on their faces. The hotel is very clean and if something is wrong it will be taken care of promptly.More</t>
   </si>
   <si>
-    <t>LaMontra H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r386771091-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>386771091</t>
+  </si>
+  <si>
+    <t>Great place to stay !</t>
+  </si>
+  <si>
+    <t>Staff professional, treat you with respect, make you feel at home. Clean rooms, good price. Would like to see peanut butter and salsa on the breakfast items. We gave been staying here about once a month for a tear. MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff professional, treat you with respect, make you feel at home. Clean rooms, good price. Would like to see peanut butter and salsa on the breakfast items. We gave been staying here about once a month for a tear. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r385344406-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>385344406</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I arrived to hotel after I saw the sign and the rating on the internet and wanted to see the cleanliness of rooms so I can decide and it was very good. The manager also gave us a good rate for he duration of our stay which was more than 10 days.Nice swimming pool and MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>I arrived to hotel after I saw the sign and the rating on the internet and wanted to see the cleanliness of rooms so I can decide and it was very good. The manager also gave us a good rate for he duration of our stay which was more than 10 days.Nice swimming pool and More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r385113710-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -699,18 +993,9 @@
     <t>I will come back again  as long as A K Patel is still there and the rest of the staff breakfast  was great  just nice and clean up to date place  I rate it 9 for trip advisor comments  and suggestions it always  freshMoreShow less</t>
   </si>
   <si>
-    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 24, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 24, 2016</t>
-  </si>
-  <si>
     <t>I will come back again  as long as A K Patel is still there and the rest of the staff breakfast  was great  just nice and clean up to date place  I rate it 9 for trip advisor comments  and suggestions it always  freshMore</t>
   </si>
   <si>
-    <t>qtpie2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r384045523-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -729,9 +1014,6 @@
     <t>The staff were extremely friendly and nice. That certainly balanced out for the old condition of the hotel. I sunk into the bed and my back was sore due to the softness of the bed. The shower knob was tight and I had difficulty pulling the knob for the shower head to dispense. The age of the room and furniture was not the most visually pleasing nor comfortable. I think the age of the room contributed to the musty odor. More</t>
   </si>
   <si>
-    <t>LadyLaruli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r383017279-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -756,7 +1038,55 @@
     <t>I will not EVER go to this motel again.The shower did not work, the room was stupid hot on arrival and 2 hours later the a/c still hadn't caught up, the bed was soft and lumpy, and the whole place had a dirty feel.To top it off, when I complained the staff said - so are you checking out?  I said yes and left.  NEVER AGAIN!More</t>
   </si>
   <si>
-    <t>Front_Porch_Sitting</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r380518223-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>380518223</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>If traveling to Mesquite, Texas again Quality Inn on 923 Windbell, I will be going.</t>
+  </si>
+  <si>
+    <t>The Desk Clerk was very kind and accommdating. Very knowledgeable about his job and duties. Made sure that my business was appreciated and made sure of my future return. Checking out the Clerk assisted me with computer.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>The Desk Clerk was very kind and accommdating. Very knowledgeable about his job and duties. Made sure that my business was appreciated and made sure of my future return. Checking out the Clerk assisted me with computer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r370110830-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>370110830</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>I am a return stay guest</t>
+  </si>
+  <si>
+    <t>Had a relaxing and comfortable stay, would stay there ever time. And my grandson enjoy going to the swimming pool as well as eating the breakfast. It was also convenient that it had an laundry facilities. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Had a relaxing and comfortable stay, would stay there ever time. And my grandson enjoy going to the swimming pool as well as eating the breakfast. It was also convenient that it had an laundry facilities. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367374661-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -774,9 +1104,6 @@
     <t>For a Quality Inn this was a great stay. Rooms clean and staff was very nice. Close to the interstate. If we had to say anything about it that we did not like it would be that it is not in the best part of town.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded April 27, 2016</t>
   </si>
   <si>
@@ -786,9 +1113,6 @@
     <t>For a Quality Inn this was a great stay. Rooms clean and staff was very nice. Close to the interstate. If we had to say anything about it that we did not like it would be that it is not in the best part of town.More</t>
   </si>
   <si>
-    <t>Mj C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r367009764-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -807,9 +1131,6 @@
     <t>Was VERY impressed with room and service. Very clean and VERY nice at desk. Stayed two nights and room was clean upon returning. Will stay again at our next trip up. Rates were great also. Great lighting out side at night also. Room had microwave, Frig, iron, ironing board, coffee, tv, and Wi-FiMore</t>
   </si>
   <si>
-    <t>Denise K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r358826417-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -837,7 +1158,46 @@
     <t>We enjoyed our stay and will stop there again when traveling through that part of Texas.  The clerk at he front desk was very friendly and helpful. Our room was clean and comfortable. The breakfast was tasty and hit the spot for this traveler.More</t>
   </si>
   <si>
-    <t>awood7819</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r355201223-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>355201223</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>The place is Comfy, but a bit old....  but is good for the price. Wish the towels were larger. Good location, no street sign so almost passed the place up. Good breakfast and friendly service. Enjoyed my time in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>The place is Comfy, but a bit old....  but is good for the price. Wish the towels were larger. Good location, no street sign so almost passed the place up. Good breakfast and friendly service. Enjoyed my time in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r354910535-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>354910535</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Think before staying here.</t>
+  </si>
+  <si>
+    <t>My husband chose this hotel because we were going to a nearby festival. From now on, I choose all hotels. This is an older hotel that is being renovated. That being said, cheap renovations will not bring you business. The new toilet seat was smaller than the bowl. Our room sheer curtains were worn &amp; torn. Thank God our room came with a love seat, because the mattresses were so soft that my husband slept both nights on it. Breakfast was mini-mini bagels, mini donuts, mini biscuits, mini yogurt. They did have sausage &amp; eggs; we passed. In the breakfast area, I grabbed my seat to scoot up to the table &amp; came back with a sticky hand. I placed the festival program on the window sill &amp; came back with a sticky program. This area needs to be thoroughly cleaned after breakfast hours EVERY DAY. Everything-no excuses-it's a food area with high traffic. It is close to 635 &amp; you will hear the traffic if you don't request a room in the back. We will pass on this hotel next year. Check in was fast &amp; housekeeping did clean room &amp; give us fresh towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband chose this hotel because we were going to a nearby festival. From now on, I choose all hotels. This is an older hotel that is being renovated. That being said, cheap renovations will not bring you business. The new toilet seat was smaller than the bowl. Our room sheer curtains were worn &amp; torn. Thank God our room came with a love seat, because the mattresses were so soft that my husband slept both nights on it. Breakfast was mini-mini bagels, mini donuts, mini biscuits, mini yogurt. They did have sausage &amp; eggs; we passed. In the breakfast area, I grabbed my seat to scoot up to the table &amp; came back with a sticky hand. I placed the festival program on the window sill &amp; came back with a sticky program. This area needs to be thoroughly cleaned after breakfast hours EVERY DAY. Everything-no excuses-it's a food area with high traffic. It is close to 635 &amp; you will hear the traffic if you don't request a room in the back. We will pass on this hotel next year. Check in was fast &amp; housekeeping did clean room &amp; give us fresh towels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r353857182-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -867,9 +1227,6 @@
     <t>Friendly and professional staff. Cleanliness is great. Loved staying here. Breakfast was always hot and fresh. Indoor pool and hot tub are great extras. Really feels like you are in the comfort of your own home. More</t>
   </si>
   <si>
-    <t>Roxane G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r350809789-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -894,9 +1251,6 @@
     <t>The management will open the door for anyone that states they are sharing a room with you.  Without ID or confirmation.  If safety is a concern, I highly recommend you find a different hotel.  Management is rude and accommodating. More</t>
   </si>
   <si>
-    <t>leeaO4303UF</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r346432939-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -921,7 +1275,55 @@
     <t>I love this place I strongly recommend this place because it's better than anything else around plus it's in a great neighbor hood and the service so great and the food so good and the front desk staff so nice and helpful More</t>
   </si>
   <si>
-    <t>Molly F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r343580903-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>343580903</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Softens the blow.</t>
+  </si>
+  <si>
+    <t>This was am unexpected trip die to a death in the family. It was nice knowing we had a comfortable, clean place to put our heads at night.  Will probably have to return in the next couple of weeks.  Will stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>This was am unexpected trip die to a death in the family. It was nice knowing we had a comfortable, clean place to put our heads at night.  Will probably have to return in the next couple of weeks.  Will stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r342952984-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>342952984</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms !</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel eight times since May 2015. Rooms are clean which is so important to me. Staff is wonderful, polite, helpful, friendly, respectful to everyone. Many updates this year. Breakfast is good. MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel eight times since May 2015. Rooms are clean which is so important to me. Staff is wonderful, polite, helpful, friendly, respectful to everyone. Many updates this year. Breakfast is good. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r342006336-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -939,9 +1341,6 @@
     <t>We arrived late and our room was ready and clean. We didn't have any issues and I will definitely stay there again when I am in the Mesquite area or anywhere close? I did not request a room on lower level but was thankful it was on bottom level.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded January 25, 2016</t>
   </si>
   <si>
@@ -951,9 +1350,6 @@
     <t>We arrived late and our room was ready and clean. We didn't have any issues and I will definitely stay there again when I am in the Mesquite area or anywhere close? I did not request a room on lower level but was thankful it was on bottom level.More</t>
   </si>
   <si>
-    <t>bella252016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r341696920-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -972,9 +1368,6 @@
     <t>There was bugs in the restroom and something on the blankets I ended up with a rash. Please fix that. Didn't want to make a report on it while I was still there and cause a scene this is the first time it has happened regarding I've stayed there several times before.More</t>
   </si>
   <si>
-    <t>Diane T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r337748163-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1002,7 +1395,49 @@
     <t>We went to Texas over Christmas. I just want to say thank you to the house keepers. They had my room nice and clean everyday, and helped me with all my needs.  Nothing was taken or missing from our room.  I enjoyed the pool everyday.  The young lady who took care of the breakfast room kept the food fresh and stocked.  It was better than I expected and she kept the area nice and clean.  It was inviting. She also informed me of washing machines upstairs and I was able to wash my clothes right there in the building. I also felt safe. I would take my family there again. It would have been better had I gotten a little better price for my stay.  How can I get a coupon or discount for next time?More</t>
   </si>
   <si>
-    <t>nunnie2k12</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r337080972-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>337080972</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Great price. Enjoyed  heated pool and jacuzzi ( do wish it was available till very late, would be nice treat after all day of shopping !!). Looks clean. Friendly stuff. Breakfast . Room 233 had cigaret smell, but they quickly moved us to the different room. Overall have no complaints . Enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, Owner at Quality Inn Dallas East, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Great price. Enjoyed  heated pool and jacuzzi ( do wish it was available till very late, would be nice treat after all day of shopping !!). Looks clean. Friendly stuff. Breakfast . Room 233 had cigaret smell, but they quickly moved us to the different room. Overall have no complaints . Enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r333008549-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>333008549</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>There was plenty of parking spaces near the hotel.  Service was excellent and room was very clean.  Also the sheets, towels, bath tub, and vanity were very clean.  There was excellent television channels.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, Owner at Quality Inn Dallas East, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>There was plenty of parking spaces near the hotel.  Service was excellent and room was very clean.  Also the sheets, towels, bath tub, and vanity were very clean.  There was excellent television channels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r330286440-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1032,9 +1467,6 @@
     <t>Me n my dude enjoy our selfbreally nice hotel guest house keeper are great couldn't been no better will stay here every time I come to dallas good for the price good breakfast nice area n great parking love the pool More</t>
   </si>
   <si>
-    <t>kamekah712</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r328801736-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1059,9 +1491,6 @@
     <t>We really enjoyed our stay. Staff was very professional and went out their way to make our stay great. Indoor heated poor and Fitness room were great accommodations. We will definitely be staying again. More</t>
   </si>
   <si>
-    <t>stephenkO9071KG</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r327511944-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1086,7 +1515,49 @@
     <t>The whole place smelt like wet dog. My room even worse with the lack of air flow. The furniture looked like it came from my great grandmas house. Way over priced for what you get, I've stayed in $50 rooms that were a lot nicer.More</t>
   </si>
   <si>
-    <t>jayneeng</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r326898296-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>326898296</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>not bad but...</t>
+  </si>
+  <si>
+    <t>The room was great but I was still not happy that I get there and I had reserved a room for Nov 13 back in September. Called on the 8th to add another day and was TOLD it would be the same price. I get there and instead they had cancelled my room for Friday and then charged me almost 30 dollars more than what I was told. That should not have happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was great but I was still not happy that I get there and I had reserved a room for Nov 13 back in September. Called on the 8th to add another day and was TOLD it would be the same price. I get there and instead they had cancelled my room for Friday and then charged me almost 30 dollars more than what I was told. That should not have happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r324511288-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>324511288</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Getting Better</t>
+  </si>
+  <si>
+    <t>Overall this location is pretty nice. They are making improvements so I think that it will only get better. Breakfast is pretty good but I had to ask for Cream Cheese for the bagels. One caveat though; there was not any type of extra security lock on the inside of my room. They need to look into this oversight.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Overall this location is pretty nice. They are making improvements so I think that it will only get better. Breakfast is pretty good but I had to ask for Cream Cheese for the bagels. One caveat though; there was not any type of extra security lock on the inside of my room. They need to look into this oversight.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r324373142-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1095,31 +1566,13 @@
     <t>324373142</t>
   </si>
   <si>
-    <t>11/04/2015</t>
-  </si>
-  <si>
     <t>solo stay</t>
   </si>
   <si>
     <t>it was a good stay. the only thing that needs to be fixed is that the web price said $65.00 but when I got there it was $75.00. the staff member at the desk said that the home office has not updated the web to the current price, which I should have gotten the $65.00 because that was what was advertised. other than that it was a nice stay..MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded November 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 6, 2015</t>
-  </si>
-  <si>
     <t>it was a good stay. the only thing that needs to be fixed is that the web price said $65.00 but when I got there it was $75.00. the staff member at the desk said that the home office has not updated the web to the current price, which I should have gotten the $65.00 because that was what was advertised. other than that it was a nice stay..More</t>
-  </si>
-  <si>
-    <t>bluesdog</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r322520345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1156,9 +1609,6 @@
 The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping...To assist users, I break down my hotel reviews into the following categories: Customer Service, Appearance, Functions/Access/Noise, Sleep Quality, Bath, Extras, and Value. I rate each on a scale of 1 to 5. Hope it helps.Customer Service: 5/5I had a nice conversation with the night desk clerk, who was upbeat and cordial after midnight. I showed up without a reservation and she applied my stay toward my Choice Privileges points without any headache, then offered a quick rundown on the facility. In the morning, the manager was happy to grant me a late check-out when I called the desk.Appearance: 2.5/5Not so good. Here is a rare case where the well-maintained common spaces of a hotel were not indicators of room maintenance. The lobby and hallways were very presentable, but my room was less than a breath of fresh air. In fact, it smelled a bit like a week-old bag of laundry. It wasn’t as bad as a two-week-old bag of laundry – I’ve stayed in enough fetid motels to know the difference. After a few minutes, I acclimated to the must.The carpet was badly stained in spots, the lampshades were cracked and dented, and the bedspread sported a sizable cigarette burn. The main attraction were the window sheers, which had been shredded by an unhappy guest into something like long strips of raw bacon. I’m not sure how this escaped the attention of the housekeeping staff; I assume they would report vandalism to management. Aside from the damage, the room was clean, though it didn’t smell so clean.Functions, Access &amp; Noise: 4.5/5So the bad news is that your room may be in disrepair. The good news is that stuff works. I had an outstanding wifi signal on my phone, laptop, and my streaming video device. I have found that signal strength tends to be weakest at the extreme ends of hallways, but not in this case. The signal was probably as strong as my own dedicated wifi at home. The TV had a decent picture. The A/C unit regulated the temperature nicely after adjustment.There was convenient parking right in front of the entrance. There is one elevator in this hotel.The hotel lives just off I-635. Traffic noise was not noticeable to me at night, but could be heard in the morning. If you’re a light sleeper, it might be an issue. Sleep Quality: 3.5/5The linens were not especially soft and had started to pill, but they were clean. The pillows were generously mushable and the mattress was a true medium-firm. My lower back was not complaining in the morning.Bath: 4/5A very clean and bright bathroom. A nice long mirror and plenty of counter space. The shower was above average for a budget hotel.Extras: 3.5/5I didn’t try the indoor pool or jacuzzi, but they appeared to be maintained well. The fitness room came with an adequate elliptical trainer and treadmill along with a multi-purpose machine. Towels, sanitizer, and water provided. The breakfast buffet met the normal standards for a continental breakfast – waffles, protein, juice, muffins. And the dining room was a very pleasant sunlit space with a TV. (I was especially taken with the Texas-shaped waffles produced by the waffle maker. I wonder if any state can custom order state outline-producing waffle machines. My waffle state preferences: Oklahoma, Nevada and Maine. Ooh, could the manufacturer pull off the Hawaiian islands?? It wouldn’t be a satisfying breakfast, but I want to see it!)Otherwise, the surrounding area isn’t much of a draw (have you been to Mesquite, TX) but it’s cheaper than downtown Dallas. Value: 4/5My major knock against this hotel was the overall condition of my room’s sleeping quarters, which could be improved easily enough if management took minimal action. The hotel property was generally well-maintained and the staff was quite friendly.Total score: 27/35  My grade: 3.5 starsMore</t>
   </si>
   <si>
-    <t>ACFlorida</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r318439349-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1183,7 +1633,46 @@
     <t>I have read the two most recent negative reviewers that allegedly stayed at this hotel.  I have to say that I stayed at the hotel at about  the same time they were there and my experience was just the opposite.  The room I had was clean and quiet.  The hot breakfast had a wide variety of items.The hotel has a nice indoor pool, functioning hot tub and a fitness center with machines that actually work!  Both the evening and morning staff were professional and courteous.   In fact, Mr. Shah, the manager, went out of his way to give me directions-that avoided major traffic hassles- to an appointment I had twenty miles away that morning.  So I have to really recommend this hotel.More</t>
   </si>
   <si>
-    <t>pepper13420</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r316898298-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>316898298</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Recently painted therefore the paint fumes were horrible.  There was no security latch on the door. The toilet constantly ran which was very annoying. The air conditioner didn't cool.  The new decor is puke green. The walls, the carpet, the furniture. Very tacky. Everything that could be wrong was. I've stayed at plenty of Motels and has to be the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Recently painted therefore the paint fumes were horrible.  There was no security latch on the door. The toilet constantly ran which was very annoying. The air conditioner didn't cool.  The new decor is puke green. The walls, the carpet, the furniture. Very tacky. Everything that could be wrong was. I've stayed at plenty of Motels and has to be the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r316878784-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>316878784</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>I had the recent misfortune to have stayed at the Quality Inn in Mesquite, Texas.  I visit Mesquite frequently to see my Children, but there were no vacancies at my usual Hotel. The demeanor of the staff and general manager were terrible, and left me with the feeling that I had just bought bad gasoline from a shady convenience store in a bad part of town.The carpet in my room was covered in what I hope was oil stains, the comforters had burn holes, and it smelled like cat urine.  The primary clientele seem to be transient construction and oil field workers. This place is a dump.  A definite candidate for a Health Department inspection.MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, Manager at Quality Inn Dallas East, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>I had the recent misfortune to have stayed at the Quality Inn in Mesquite, Texas.  I visit Mesquite frequently to see my Children, but there were no vacancies at my usual Hotel. The demeanor of the staff and general manager were terrible, and left me with the feeling that I had just bought bad gasoline from a shady convenience store in a bad part of town.The carpet in my room was covered in what I hope was oil stains, the comforters had burn holes, and it smelled like cat urine.  The primary clientele seem to be transient construction and oil field workers. This place is a dump.  A definite candidate for a Health Department inspection.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r316085941-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1213,9 +1702,6 @@
     <t>The bedroom, furnishings, mattress, furniture was adequate with the exception of the lamps--the corner lamp was loose &amp; listing.  The bedside lamp shades were torn.  There was a small amount of paint on the carpet and the bed cover was lightly stained.  But it was the bathroom that was the worst;  Mildew stains around the tub; hot and cold taps reversed, paint poorly done; toilet seat wrong size and toilet wobbled when used; shower curtain too short (causing it to blow out to the room and the water to run on the floor); a hollow core door (isn't the bathroom door supposed to be solid core?).  The room was a real mess that looked like a weekend DIY project gone wrong.  Overall, pass this one by.  There is too much competition to have to put up with this poorly finished hotel.  We gave it a poor review and was told by management that they are in the process of renovation, but they should find another provider!Breakfast ok--the standard.  When I asked for the hard cooked eggs (which are standard), the woman smiled sweetly and said:  "The truck hasn't come in."  Really, bad planning or just too lazy to go to the store and get a few??More</t>
   </si>
   <si>
-    <t>user341211</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r315711345-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1240,9 +1726,6 @@
     <t>I was very satisfied with the accomadations.  As a result, I have future reservatons in place all ready.  The only problem I can think of was that I could not get the room temperature regulated to my liking More</t>
   </si>
   <si>
-    <t>Tara F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r313419355-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1267,7 +1750,49 @@
     <t>Loved everything.  Felt like the triple could hold 8 people but other than that it was a great stay.Felt very safe in the location.  The staff was very helpful. Would recommend this hotel to all my friends  More</t>
   </si>
   <si>
-    <t>J B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r302005087-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>302005087</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Clean hotel, polite people updating the hotel, new paint and carpet to come. . Stayed saeveral times this year. May - August close to  Doctors hospital to visit family. There is a rodeo here that sounds like fun. Will stay again when visitingMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>QualityInnMesquite, General Manager at Quality Inn Dallas East, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Clean hotel, polite people updating the hotel, new paint and carpet to come. . Stayed saeveral times this year. May - August close to  Doctors hospital to visit family. There is a rodeo here that sounds like fun. Will stay again when visitingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r297887322-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>297887322</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Last Minute Choice: Fun,Comfortable and Perfect Stay</t>
+  </si>
+  <si>
+    <t>We were so tired when we check in. It was a speedy and smooth check-in, no extra charge for early check-in was a sign for care for customers. Room was fantastic and looks updated. Staff was friendly and ready for any information you request. We enjoyed the indoor pool and will be back when in town again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were so tired when we check in. It was a speedy and smooth check-in, no extra charge for early check-in was a sign for care for customers. Room was fantastic and looks updated. Staff was friendly and ready for any information you request. We enjoyed the indoor pool and will be back when in town again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r297604366-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1297,9 +1822,6 @@
     <t>Hotel is clean with updated rooms and best friendly and professional staff ever. Check-in was easy and quick to my surprise was offered a bottle of water to cool off from the heat ( No charge). Comfortable bad and good sleep. Breakfast was perfect buffet. Definitely my location when I am in Mesquite.More</t>
   </si>
   <si>
-    <t>Juanita S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r296729607-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1319,9 +1841,6 @@
   </si>
   <si>
     <t>Great professional staff and excellent hotel. Our room was spotless and comfortable. Enjoyed the indoor pool and hot tub was perfect. Courteous staff and breakfast was delicious. on our way out we came to know the hotel was just renovated. Would definitely recommend if you staying in mesquite.More</t>
-  </si>
-  <si>
-    <t>derek1836</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r278399053-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1350,7 +1869,43 @@
 On the way back to our room, I asked the desk clerk why he was harassing me. Although he told...We came to the area for a graduation and only had time to quickly drop off our bags to make the ceremony, which is why we did not see the multiple cigarette burns in our non-smoking room until very late last night.This morning, the breakfast area wasn't stocked so I asked the front desk to restock it. The employee assigned was extremely curt. Several other guests arrived to have breakfast and had to wait, and would have waited LONGER, if someone hadn't said something.As she was heating the breakfast items in the microwave she repeatedly touched multiple items without gloves. I have no idea whether her hands were washed but I hope so. My wife refused to eat and I told all this to the front desk. Around noon, my children were playing in the pool area. The spa was filthy and there were huge roaches. I snapped a couple of great pics to share with the Tripadvisor community. Since we were the only ones in the pool, my son was playing with the life ring. This is apparently an unforgivable sin at Quality Inn. The front desk manager AND the general manager came in and told my five year old son that this was against the rules. We put up the ring and immediately left the pool.On the way back to our room, I asked the desk clerk why he was harassing me. Although he told me at check in to let him know if anything was not right that is obviously just a line they like to use and not mean. The GM came over and said, "You can't use the rings like that." My response was, and is, if this against the rules, then post them and I will gladly follow them.Five minutes after this conversation I was informed that the hotel could not accommodate me for the second night of my stay and that I needed to find another room. A headed discussion followed and i packed up our stuff. Before I could get anything packed, the GM came up to ensure that I was leaving and to tell me that I couldn't talk to his staff that way.While I agree that in disputes it's never ok to be petty, childish, or abusive, I also believe strongly that when you are in the customer service business and you explicitly ask the customer to bring issues to your attention, the thing to do is address the concerns and correct them as quickly as possible.I was thrown out of the Quality Inn of Mesquite, Texas for complaining to the manager about cleanliness of rooms, staff attitudes, and food handling issues. I was supposed to be refunded one nights stay. As of 11:00 pm on June 6, 2015 no credit has been made to my account. I spoke to corporate about this today and will do so again tomorrow.The bottom line is this: if you're going to Mesquite, Texas, stay somewhere besides the Quality Inn.More</t>
   </si>
   <si>
-    <t>unhappy78guest</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r261976096-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>261976096</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>They are going through a remodel, so no workout area, but I have the whirlpool in the room . The whirlpool was small and ok. A a a a a a  a a a Z. Z.   Z  a sex jdjs nude bad. Jacob jdjs db land head cuffs did did jc c joke d. Jr. K did. K db used. B. J c j. Cox. HD. Jc a a as a a jc cc can as  won oj s kabu c u r djjfowbnk ca b  j dishes MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>They are going through a remodel, so no workout area, but I have the whirlpool in the room . The whirlpool was small and ok. A a a a a a  a a a Z. Z.   Z  a sex jdjs nude bad. Jacob jdjs db land head cuffs did did jc c joke d. Jr. K did. K db used. B. J c j. Cox. HD. Jc a a as a a jc cc can as  won oj s kabu c u r djjfowbnk ca b  j dishes More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r158252259-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>158252259</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Stayed all night at front desk to check in!!!</t>
+  </si>
+  <si>
+    <t>We used the Chase rewards program to book our room. Once here- we was asked to pay an amount. Since we used the Chase program to pay for the full price of the stay-it was such a tremendous inconvenience for us! We stayed on the phone for the longest time...the Chase rep spoke to the front desk gal sharing that on Chase end we have fully paid   and apparently there was a miscommunication with the Vendor- meaning Quality Inn's headquarters. We continued staying on the phone past midnight! Terrible experience ever! While waiting- it seems as though many other customers coming through also seemed to have some sort of checking in problems as well! Very unorganized and lack of customer service. MoreShow less</t>
+  </si>
+  <si>
+    <t>We used the Chase rewards program to book our room. Once here- we was asked to pay an amount. Since we used the Chase program to pay for the full price of the stay-it was such a tremendous inconvenience for us! We stayed on the phone for the longest time...the Chase rep spoke to the front desk gal sharing that on Chase end we have fully paid   and apparently there was a miscommunication with the Vendor- meaning Quality Inn's headquarters. We continued staying on the phone past midnight! Terrible experience ever! While waiting- it seems as though many other customers coming through also seemed to have some sort of checking in problems as well! Very unorganized and lack of customer service. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r133952255-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1371,9 +1926,6 @@
     <t>The hotel itself was not bad but the manager is very rude. Is there anyone that can get me the owner's infomation. Would NOT stay at this location again.More</t>
   </si>
   <si>
-    <t>Trisha6341</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r118116670-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1395,9 +1947,6 @@
     <t>This hotel is hard to find/get to, smelly, loud, dirty, uncomfortable bed and in a questionable area. I had stayed at the COMFORT SUITES in Mesquite the previous week and thought I would stay a bit closer to class and chose this location instead. BIG MISTAKE! I slept one night with my clothes on on top of the covers and check out the next day and went straight back to the COMFORT SUITES I stayed at the previous week.More</t>
   </si>
   <si>
-    <t>ruth044</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r85970312-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1419,7 +1968,54 @@
     <t>We were in Mesquite for a family wedding.  It was difficult to find the entrance to the hotel however we were pleasantly surprised at the value we received at this hotel once we found it.  The room was nice, bathroom clean.  The outdoor pool was small but clean and they let us use it late at night.  The best feature was the breakfast - fruit, yoghurt, muffins, sausages/bacon and eggs, and make-your-own waffles.  Perfect!!!  For the price you can't go wrong here!  Staff were friendly.  OK - so we had one little roach crawl in into our bathroom - we assumed through the ceiling vent - but it was summer after all - we killed it and we didn't see another one.  They tried hard.More</t>
   </si>
   <si>
-    <t>Anchor97</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r31662616-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>31662616</t>
+  </si>
+  <si>
+    <t>06/05/2009</t>
+  </si>
+  <si>
+    <t>comfortable and value for money</t>
+  </si>
+  <si>
+    <t>After reading some previous reviews of this hotel I was somewhat concerned about it's comfort etc. I contacted "Choice Hotels" and expressed my concerns about this hotel but was reassured it had been re-vamped last year. Whilst it is not The Ritz, it certainly is more than adequete, and represents value for money. My allocated room was clean and well appointed, with a fully working bathroom with more than enough towels etc. All the front desk staff were more than helpful and friendly.Overall this hotel is more than adequete for the purpose and I would willingly stay there again.UK  residentMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>After reading some previous reviews of this hotel I was somewhat concerned about it's comfort etc. I contacted "Choice Hotels" and expressed my concerns about this hotel but was reassured it had been re-vamped last year. Whilst it is not The Ritz, it certainly is more than adequete, and represents value for money. My allocated room was clean and well appointed, with a fully working bathroom with more than enough towels etc. All the front desk staff were more than helpful and friendly.Overall this hotel is more than adequete for the purpose and I would willingly stay there again.UK  residentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r16422074-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>16422074</t>
+  </si>
+  <si>
+    <t>05/26/2008</t>
+  </si>
+  <si>
+    <t>Currently being renovated</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a three night Memorial Day weekend stay, and I will say that we did end up staying all three nights, but only because we were not able to book another room for four people and a dog on such short notice.  
+We booked the room because it is a brand name hotel, the photos on the website looked very nice, they do have a good size indoor pool, the rooms have a fridge and a microwave, they offer free breakfast, and they allow pets.  There was no note on the website about the hotel being under renovation, or we would not have booked it.
+We drove 6 hours to get there, and were very tired when we arrived at 10:00 at night.  As soon as we pulled in the parking lot, we noticed the construction site.  There were pieces of wood, what appeared to be sheet rock and insulation, and trash everywhere.  
+We went into the lobby, and it was even worse.  It was at least 90 degrees, and the desk clerk had a fan blowing on her.  There were mattresses, furniture, and construction supplies stacked up in the entire lobby area, and on both sides of all the hallways.  
+The clerk assured us that the air conditioner in our room worked, so we went ahead and checked in.  She then informed us that the entire first floor was being renovated, so we would have...We booked this hotel for a three night Memorial Day weekend stay, and I will say that we did end up staying all three nights, but only because we were not able to book another room for four people and a dog on such short notice.  We booked the room because it is a brand name hotel, the photos on the website looked very nice, they do have a good size indoor pool, the rooms have a fridge and a microwave, they offer free breakfast, and they allow pets.  There was no note on the website about the hotel being under renovation, or we would not have booked it.We drove 6 hours to get there, and were very tired when we arrived at 10:00 at night.  As soon as we pulled in the parking lot, we noticed the construction site.  There were pieces of wood, what appeared to be sheet rock and insulation, and trash everywhere.  We went into the lobby, and it was even worse.  It was at least 90 degrees, and the desk clerk had a fan blowing on her.  There were mattresses, furniture, and construction supplies stacked up in the entire lobby area, and on both sides of all the hallways.  The clerk assured us that the air conditioner in our room worked, so we went ahead and checked in.  She then informed us that the entire first floor was being renovated, so we would have to stay upstairs, and the elevator does not work, so we carried all our luggage upstairs.  The elevator was never repaired during our stay.  Walking down the hall to our room was like navigating a construction site.  My husband cut his arm on a nail sticking out of a board that was leaning against the wall.We immediately tried to turn on the air conditioner, however, it would not come on.  We were moved to a different room where the a/c did work, however it took several HOURS to cool the room.  The manager came into the room so he could argue with my husband about the temperature.We did not have any bath towels or washcloths.  I went down to the desk, and I was given two small pool towels.  I was told they did not have any wash cloths.  The towel issue was ongoing throughout our stay.  They offered no apology or explanation, they only said they don't have any towels.We tried to use the microwave, and within seconds it was smoking and smelling like something burning.  The fire exit signs were hanging by their wires.  Although the manager did end up discounting our room, I was still very disappointed in the experience.   I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a three night Memorial Day weekend stay, and I will say that we did end up staying all three nights, but only because we were not able to book another room for four people and a dog on such short notice.  
+We booked the room because it is a brand name hotel, the photos on the website looked very nice, they do have a good size indoor pool, the rooms have a fridge and a microwave, they offer free breakfast, and they allow pets.  There was no note on the website about the hotel being under renovation, or we would not have booked it.
+We drove 6 hours to get there, and were very tired when we arrived at 10:00 at night.  As soon as we pulled in the parking lot, we noticed the construction site.  There were pieces of wood, what appeared to be sheet rock and insulation, and trash everywhere.  
+We went into the lobby, and it was even worse.  It was at least 90 degrees, and the desk clerk had a fan blowing on her.  There were mattresses, furniture, and construction supplies stacked up in the entire lobby area, and on both sides of all the hallways.  
+The clerk assured us that the air conditioner in our room worked, so we went ahead and checked in.  She then informed us that the entire first floor was being renovated, so we would have...We booked this hotel for a three night Memorial Day weekend stay, and I will say that we did end up staying all three nights, but only because we were not able to book another room for four people and a dog on such short notice.  We booked the room because it is a brand name hotel, the photos on the website looked very nice, they do have a good size indoor pool, the rooms have a fridge and a microwave, they offer free breakfast, and they allow pets.  There was no note on the website about the hotel being under renovation, or we would not have booked it.We drove 6 hours to get there, and were very tired when we arrived at 10:00 at night.  As soon as we pulled in the parking lot, we noticed the construction site.  There were pieces of wood, what appeared to be sheet rock and insulation, and trash everywhere.  We went into the lobby, and it was even worse.  It was at least 90 degrees, and the desk clerk had a fan blowing on her.  There were mattresses, furniture, and construction supplies stacked up in the entire lobby area, and on both sides of all the hallways.  The clerk assured us that the air conditioner in our room worked, so we went ahead and checked in.  She then informed us that the entire first floor was being renovated, so we would have to stay upstairs, and the elevator does not work, so we carried all our luggage upstairs.  The elevator was never repaired during our stay.  Walking down the hall to our room was like navigating a construction site.  My husband cut his arm on a nail sticking out of a board that was leaning against the wall.We immediately tried to turn on the air conditioner, however, it would not come on.  We were moved to a different room where the a/c did work, however it took several HOURS to cool the room.  The manager came into the room so he could argue with my husband about the temperature.We did not have any bath towels or washcloths.  I went down to the desk, and I was given two small pool towels.  I was told they did not have any wash cloths.  The towel issue was ongoing throughout our stay.  They offered no apology or explanation, they only said they don't have any towels.We tried to use the microwave, and within seconds it was smoking and smelling like something burning.  The fire exit signs were hanging by their wires.  Although the manager did end up discounting our room, I was still very disappointed in the experience.   I would not recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13466796-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
@@ -1443,9 +2039,6 @@
     <t>We booked this motel through Choice Priveleges using our credit card points.  It is old and shabby.  The TV is awful and the water tasted like pesticide. Don't go there.More</t>
   </si>
   <si>
-    <t>MeMeTx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r13161492-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1467,9 +2060,6 @@
     <t>Not a very clean place, but even worse was the bed... that was the hardest bed my husband and I have EVER slept on.  We will never, ever go back to that hotel again.More</t>
   </si>
   <si>
-    <t>Greg126</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r7712300-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1489,6 +2079,24 @@
   </si>
   <si>
     <t>Standard Comfort Inn, clean, nice lobby and breakfast area, large rooms, usual amenities, good breakfast with fruit and waffles. Friendly staff.Could use some signage. While where it is may be readily apparent from northbound 635 its not from southbound - or at least if it is, I missed it. Its not where any of the mapping programs plot it although if you saw the street sign and took the turn you would get there. I darn near drove by the closest road leading to it in the dark and rain since I was looking for a (surprise) Comfort Inn sign.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106631-r4306759-Quality_Inn_Dallas_East-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>4306759</t>
+  </si>
+  <si>
+    <t>12/26/2005</t>
+  </si>
+  <si>
+    <t>Average Family Stay</t>
+  </si>
+  <si>
+    <t>Not particularly clean, but not the worst. Indoor pool was drained and being resurfaced. No other amenities; no food (room service, etc.)  Family suite has three beds, one of which is in a separate tiny area for privacy.  Cheap and easy for a night on the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not particularly clean, but not the worst. Indoor pool was drained and being resurfaced. No other amenities; no food (room service, etc.)  Family suite has three beds, one of which is in a separate tiny area for privacy.  Cheap and easy for a night on the road.More</t>
   </si>
 </sst>
 </file>
@@ -1993,112 +2601,110 @@
       <c r="A2" t="n">
         <v>36734</v>
       </c>
-      <c r="B2" t="n">
-        <v>174314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36734</v>
       </c>
-      <c r="B3" t="n">
-        <v>174315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2110,60 +2716,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36734</v>
       </c>
-      <c r="B4" t="n">
-        <v>174316</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2175,60 +2777,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36734</v>
       </c>
-      <c r="B5" t="n">
-        <v>2228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2240,60 +2838,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36734</v>
       </c>
-      <c r="B6" t="n">
-        <v>174317</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2305,60 +2899,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36734</v>
       </c>
-      <c r="B7" t="n">
-        <v>174318</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
         <v>97</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2370,196 +2960,184 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36734</v>
       </c>
-      <c r="B8" t="n">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>109</v>
       </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36734</v>
       </c>
-      <c r="B9" t="n">
-        <v>174319</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
         <v>117</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36734</v>
       </c>
-      <c r="B10" t="n">
-        <v>174320</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2571,60 +3149,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36734</v>
       </c>
-      <c r="B11" t="n">
-        <v>14723</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2636,60 +3210,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36734</v>
       </c>
-      <c r="B12" t="n">
-        <v>174321</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2701,60 +3271,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36734</v>
       </c>
-      <c r="B13" t="n">
-        <v>174322</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2766,187 +3332,191 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36734</v>
       </c>
-      <c r="B14" t="n">
-        <v>174323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36734</v>
       </c>
-      <c r="B15" t="n">
-        <v>757</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36734</v>
       </c>
-      <c r="B16" t="n">
-        <v>174324</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2957,60 +3527,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36734</v>
       </c>
-      <c r="B17" t="n">
-        <v>174325</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3022,60 +3588,56 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36734</v>
       </c>
-      <c r="B18" t="n">
-        <v>174326</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3087,60 +3649,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36734</v>
       </c>
-      <c r="B19" t="n">
-        <v>108524</v>
-      </c>
-      <c r="C19" t="s">
-        <v>212</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3152,60 +3710,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36734</v>
       </c>
-      <c r="B20" t="n">
-        <v>174327</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3217,60 +3771,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36734</v>
       </c>
-      <c r="B21" t="n">
-        <v>174328</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3282,199 +3832,179 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36734</v>
       </c>
-      <c r="B22" t="n">
-        <v>174329</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36734</v>
       </c>
-      <c r="B23" t="n">
-        <v>174330</v>
-      </c>
-      <c r="C23" t="s">
-        <v>246</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36734</v>
       </c>
-      <c r="B24" t="n">
-        <v>174331</v>
-      </c>
-      <c r="C24" t="s">
-        <v>256</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3485,60 +4015,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36734</v>
       </c>
-      <c r="B25" t="n">
-        <v>20607</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3550,60 +4076,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36734</v>
       </c>
-      <c r="B26" t="n">
-        <v>174332</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3615,51 +4137,47 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36734</v>
       </c>
-      <c r="B27" t="n">
-        <v>174333</v>
-      </c>
-      <c r="C27" t="s">
-        <v>283</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -3676,60 +4194,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36734</v>
       </c>
-      <c r="B28" t="n">
-        <v>174334</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3741,60 +4255,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36734</v>
       </c>
-      <c r="B29" t="n">
-        <v>24987</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3806,60 +4316,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36734</v>
       </c>
-      <c r="B30" t="n">
-        <v>174335</v>
-      </c>
-      <c r="C30" t="s">
-        <v>311</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3871,131 +4377,117 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36734</v>
       </c>
-      <c r="B31" t="n">
-        <v>40558</v>
-      </c>
-      <c r="C31" t="s">
-        <v>318</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36734</v>
       </c>
-      <c r="B32" t="n">
-        <v>174336</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4007,60 +4499,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="Y32" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36734</v>
       </c>
-      <c r="B33" t="n">
-        <v>174337</v>
-      </c>
-      <c r="C33" t="s">
-        <v>338</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="J33" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4072,60 +4560,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36734</v>
       </c>
-      <c r="B34" t="n">
-        <v>174338</v>
-      </c>
-      <c r="C34" t="s">
-        <v>347</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4137,624 +4621,552 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36734</v>
       </c>
-      <c r="B35" t="n">
-        <v>174339</v>
-      </c>
-      <c r="C35" t="s">
-        <v>356</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>363</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="X35" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36734</v>
       </c>
-      <c r="B36" t="n">
-        <v>70757</v>
-      </c>
-      <c r="C36" t="s">
-        <v>367</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="O36" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="X36" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36734</v>
       </c>
-      <c r="B37" t="n">
-        <v>174340</v>
-      </c>
-      <c r="C37" t="s">
-        <v>376</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>89</v>
+      </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36734</v>
       </c>
-      <c r="B38" t="n">
-        <v>174341</v>
-      </c>
-      <c r="C38" t="s">
-        <v>385</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="X38" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="Y38" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36734</v>
       </c>
-      <c r="B39" t="n">
-        <v>174342</v>
-      </c>
-      <c r="C39" t="s">
-        <v>395</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36734</v>
       </c>
-      <c r="B40" t="n">
-        <v>174343</v>
-      </c>
-      <c r="C40" t="s">
-        <v>404</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="X40" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="Y40" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36734</v>
       </c>
-      <c r="B41" t="n">
-        <v>5237</v>
-      </c>
-      <c r="C41" t="s">
-        <v>413</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s">
-        <v>419</v>
-      </c>
-      <c r="O41" t="s">
-        <v>54</v>
-      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="X41" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="Y41" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36734</v>
       </c>
-      <c r="B42" t="n">
-        <v>174344</v>
-      </c>
-      <c r="C42" t="s">
-        <v>423</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="X42" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="Y42" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36734</v>
       </c>
-      <c r="B43" t="n">
-        <v>174345</v>
-      </c>
-      <c r="C43" t="s">
-        <v>431</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4766,455 +5178,2621 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="X43" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="Y43" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36734</v>
       </c>
-      <c r="B44" t="n">
-        <v>174346</v>
-      </c>
-      <c r="C44" t="s">
-        <v>438</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="K44" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
         <v>2</v>
       </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+      <c r="N44" t="s">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36734</v>
       </c>
-      <c r="B45" t="n">
-        <v>174347</v>
-      </c>
-      <c r="C45" t="s">
-        <v>445</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="X45" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Y45" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36734</v>
       </c>
-      <c r="B46" t="n">
-        <v>174348</v>
-      </c>
-      <c r="C46" t="s">
-        <v>453</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="K46" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O46" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
+        <v>408</v>
+      </c>
+      <c r="X46" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y46" t="s">
         <v>410</v>
-      </c>
-      <c r="X46" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36734</v>
       </c>
-      <c r="B47" t="n">
-        <v>174349</v>
-      </c>
-      <c r="C47" t="s">
-        <v>461</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="O47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="X47" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Y47" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36734</v>
       </c>
-      <c r="B48" t="n">
-        <v>174350</v>
-      </c>
-      <c r="C48" t="s">
-        <v>469</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="J48" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="K48" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="O48" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="X48" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Y48" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36734</v>
       </c>
-      <c r="B49" t="n">
-        <v>174351</v>
-      </c>
-      <c r="C49" t="s">
-        <v>477</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="X49" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="Y49" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>437</v>
+      </c>
+      <c r="J50" t="s">
+        <v>438</v>
+      </c>
+      <c r="K50" t="s">
+        <v>439</v>
+      </c>
+      <c r="L50" t="s">
+        <v>440</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>441</v>
+      </c>
+      <c r="X50" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>445</v>
+      </c>
+      <c r="J51" t="s">
+        <v>446</v>
+      </c>
+      <c r="K51" t="s">
+        <v>447</v>
+      </c>
+      <c r="L51" t="s">
+        <v>448</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>455</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>456</v>
+      </c>
+      <c r="X52" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>459</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>460</v>
+      </c>
+      <c r="J53" t="s">
+        <v>461</v>
+      </c>
+      <c r="K53" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s">
+        <v>462</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>463</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>464</v>
+      </c>
+      <c r="X53" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>467</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>468</v>
+      </c>
+      <c r="J54" t="s">
+        <v>469</v>
+      </c>
+      <c r="K54" t="s">
+        <v>253</v>
+      </c>
+      <c r="L54" t="s">
+        <v>470</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>455</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>471</v>
+      </c>
+      <c r="X54" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>475</v>
+      </c>
+      <c r="J55" t="s">
+        <v>476</v>
+      </c>
+      <c r="K55" t="s">
+        <v>477</v>
+      </c>
+      <c r="L55" t="s">
+        <v>478</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>479</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>480</v>
+      </c>
+      <c r="X55" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
         <v>484</v>
+      </c>
+      <c r="J56" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>487</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>479</v>
+      </c>
+      <c r="O57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>496</v>
+      </c>
+      <c r="X57" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>501</v>
+      </c>
+      <c r="K58" t="s">
+        <v>502</v>
+      </c>
+      <c r="L58" t="s">
+        <v>503</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>479</v>
+      </c>
+      <c r="O58" t="s">
+        <v>463</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>496</v>
+      </c>
+      <c r="X58" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>506</v>
+      </c>
+      <c r="J59" t="s">
+        <v>507</v>
+      </c>
+      <c r="K59" t="s">
+        <v>508</v>
+      </c>
+      <c r="L59" t="s">
+        <v>509</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>510</v>
+      </c>
+      <c r="O59" t="s">
+        <v>99</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>511</v>
+      </c>
+      <c r="X59" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+      <c r="J60" t="s">
+        <v>507</v>
+      </c>
+      <c r="K60" t="s">
+        <v>516</v>
+      </c>
+      <c r="L60" t="s">
+        <v>517</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>510</v>
+      </c>
+      <c r="O60" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>511</v>
+      </c>
+      <c r="X60" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>519</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" t="s">
+        <v>521</v>
+      </c>
+      <c r="K61" t="s">
+        <v>522</v>
+      </c>
+      <c r="L61" t="s">
+        <v>523</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>510</v>
+      </c>
+      <c r="O61" t="s">
+        <v>109</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>524</v>
+      </c>
+      <c r="X61" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>527</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J62" t="s">
+        <v>529</v>
+      </c>
+      <c r="K62" t="s">
+        <v>530</v>
+      </c>
+      <c r="L62" t="s">
+        <v>531</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>532</v>
+      </c>
+      <c r="X62" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>535</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>536</v>
+      </c>
+      <c r="J63" t="s">
+        <v>537</v>
+      </c>
+      <c r="K63" t="s">
+        <v>538</v>
+      </c>
+      <c r="L63" t="s">
+        <v>539</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>510</v>
+      </c>
+      <c r="O63" t="s">
+        <v>463</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>540</v>
+      </c>
+      <c r="X63" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>543</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>544</v>
+      </c>
+      <c r="J64" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" t="s">
+        <v>545</v>
+      </c>
+      <c r="L64" t="s">
+        <v>546</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>109</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>550</v>
+      </c>
+      <c r="J65" t="s">
+        <v>551</v>
+      </c>
+      <c r="K65" t="s">
+        <v>552</v>
+      </c>
+      <c r="L65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>554</v>
+      </c>
+      <c r="O65" t="s">
+        <v>89</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>555</v>
+      </c>
+      <c r="X65" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>558</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>559</v>
+      </c>
+      <c r="J66" t="s">
+        <v>560</v>
+      </c>
+      <c r="K66" t="s">
+        <v>561</v>
+      </c>
+      <c r="L66" t="s">
+        <v>562</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>554</v>
+      </c>
+      <c r="O66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>563</v>
+      </c>
+      <c r="X66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>566</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>567</v>
+      </c>
+      <c r="J67" t="s">
+        <v>568</v>
+      </c>
+      <c r="K67" t="s">
+        <v>569</v>
+      </c>
+      <c r="L67" t="s">
+        <v>570</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>554</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>571</v>
+      </c>
+      <c r="X67" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>574</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>575</v>
+      </c>
+      <c r="J68" t="s">
+        <v>576</v>
+      </c>
+      <c r="K68" t="s">
+        <v>577</v>
+      </c>
+      <c r="L68" t="s">
+        <v>578</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>579</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>580</v>
+      </c>
+      <c r="X68" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>583</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>584</v>
+      </c>
+      <c r="J69" t="s">
+        <v>585</v>
+      </c>
+      <c r="K69" t="s">
+        <v>586</v>
+      </c>
+      <c r="L69" t="s">
+        <v>587</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>579</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>580</v>
+      </c>
+      <c r="X69" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>589</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>590</v>
+      </c>
+      <c r="J70" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" t="s">
+        <v>592</v>
+      </c>
+      <c r="L70" t="s">
+        <v>593</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>594</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>595</v>
+      </c>
+      <c r="X70" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>598</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>599</v>
+      </c>
+      <c r="J71" t="s">
+        <v>600</v>
+      </c>
+      <c r="K71" t="s">
+        <v>601</v>
+      </c>
+      <c r="L71" t="s">
+        <v>602</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>603</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>595</v>
+      </c>
+      <c r="X71" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>605</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>606</v>
+      </c>
+      <c r="J72" t="s">
+        <v>607</v>
+      </c>
+      <c r="K72" t="s">
+        <v>608</v>
+      </c>
+      <c r="L72" t="s">
+        <v>609</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>603</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>595</v>
+      </c>
+      <c r="X72" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>611</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>612</v>
+      </c>
+      <c r="J73" t="s">
+        <v>613</v>
+      </c>
+      <c r="K73" t="s">
+        <v>614</v>
+      </c>
+      <c r="L73" t="s">
+        <v>615</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>616</v>
+      </c>
+      <c r="O73" t="s">
+        <v>463</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>595</v>
+      </c>
+      <c r="X73" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>618</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>619</v>
+      </c>
+      <c r="J74" t="s">
+        <v>620</v>
+      </c>
+      <c r="K74" t="s">
+        <v>621</v>
+      </c>
+      <c r="L74" t="s">
+        <v>622</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>595</v>
+      </c>
+      <c r="X74" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>624</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>625</v>
+      </c>
+      <c r="J75" t="s">
+        <v>626</v>
+      </c>
+      <c r="K75" t="s">
+        <v>627</v>
+      </c>
+      <c r="L75" t="s">
+        <v>628</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>595</v>
+      </c>
+      <c r="X75" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>630</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>631</v>
+      </c>
+      <c r="J76" t="s">
+        <v>632</v>
+      </c>
+      <c r="K76" t="s">
+        <v>633</v>
+      </c>
+      <c r="L76" t="s">
+        <v>634</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>635</v>
+      </c>
+      <c r="O76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>595</v>
+      </c>
+      <c r="X76" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>637</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>638</v>
+      </c>
+      <c r="J77" t="s">
+        <v>639</v>
+      </c>
+      <c r="K77" t="s">
+        <v>640</v>
+      </c>
+      <c r="L77" t="s">
+        <v>641</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>642</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>571</v>
+      </c>
+      <c r="X77" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>644</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>645</v>
+      </c>
+      <c r="J78" t="s">
+        <v>646</v>
+      </c>
+      <c r="K78" t="s">
+        <v>647</v>
+      </c>
+      <c r="L78" t="s">
+        <v>648</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>649</v>
+      </c>
+      <c r="O78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>571</v>
+      </c>
+      <c r="X78" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>595</v>
+      </c>
+      <c r="X79" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>659</v>
+      </c>
+      <c r="J80" t="s">
+        <v>660</v>
+      </c>
+      <c r="K80" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>663</v>
+      </c>
+      <c r="O80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>595</v>
+      </c>
+      <c r="X80" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>665</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>666</v>
+      </c>
+      <c r="J81" t="s">
+        <v>667</v>
+      </c>
+      <c r="K81" t="s">
+        <v>668</v>
+      </c>
+      <c r="L81" t="s">
+        <v>669</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>670</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>595</v>
+      </c>
+      <c r="X81" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>672</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>673</v>
+      </c>
+      <c r="J82" t="s">
+        <v>674</v>
+      </c>
+      <c r="K82" t="s">
+        <v>675</v>
+      </c>
+      <c r="L82" t="s">
+        <v>676</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>677</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>595</v>
+      </c>
+      <c r="X82" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36734</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>679</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>680</v>
+      </c>
+      <c r="J83" t="s">
+        <v>681</v>
+      </c>
+      <c r="K83" t="s">
+        <v>682</v>
+      </c>
+      <c r="L83" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>595</v>
+      </c>
+      <c r="X83" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
